--- a/src/main/resources/templates/report template - All DB.xlsx
+++ b/src/main/resources/templates/report template - All DB.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse-workspace\extent-excel-report\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse-workspace\extent-excel-report\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" tabRatio="785"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" tabRatio="785" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="11" r:id="rId1"/>
@@ -20,40 +20,22 @@
     <sheet name="DB Data" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="Chart1">Scenarios!$M$23</definedName>
+    <definedName name="Chart1">Scenarios!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="69">
   <si>
     <t>Passed</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>Skipped</t>
   </si>
   <si>
     <t>Feature 1</t>
   </si>
   <si>
     <t>Duration</t>
-  </si>
-  <si>
-    <t>Feature 2</t>
-  </si>
-  <si>
-    <t>Feature 3</t>
-  </si>
-  <si>
-    <t>Feature 4</t>
-  </si>
-  <si>
-    <t>Feature 5</t>
   </si>
   <si>
     <t>Title</t>
@@ -137,33 +119,6 @@
     <t>Scenario 1</t>
   </si>
   <si>
-    <t>Scenario 2</t>
-  </si>
-  <si>
-    <t>Scenario 3</t>
-  </si>
-  <si>
-    <t>Scenario 4</t>
-  </si>
-  <si>
-    <t>Scenario 5</t>
-  </si>
-  <si>
-    <t>Scenario 6</t>
-  </si>
-  <si>
-    <t>Scenario 7</t>
-  </si>
-  <si>
-    <t>Scenario 8</t>
-  </si>
-  <si>
-    <t>Scenario 9</t>
-  </si>
-  <si>
-    <t>Scenario 10</t>
-  </si>
-  <si>
     <t>tag1</t>
   </si>
   <si>
@@ -180,9 +135,6 @@
   </si>
   <si>
     <t>Excel Extent Report</t>
-  </si>
-  <si>
-    <t>2 m 37 s</t>
   </si>
   <si>
     <t>SCENARIO PASS</t>
@@ -280,14 +232,14 @@
   <si>
     <t>FAILED &amp; SKIPPED SCENARIOS</t>
   </si>
+  <si>
+    <t>1 h 2 m 37 s</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m:s.0"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -401,18 +353,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -420,14 +373,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m:s.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m:s.0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -593,6 +539,596 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$C$2:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Features Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Features Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Features Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C5E1-437A-A52D-DCB97CB8ED06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="40"/>
+      </c:doughnutChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Features</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Features!$F$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SCENARIO PASS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Features!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Feature 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Features!$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5768-4C55-9686-6251C2C8BD33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Features!$H$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SCENARIO SKIP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Features!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Feature 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Features!$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5768-4C55-9686-6251C2C8BD33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Features!$G$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SCENARIO FAIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Features!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Feature 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Features!$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5768-4C55-9686-6251C2C8BD33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="62483072"/>
+        <c:axId val="62415232"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="62483072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="62415232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="62415232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="62483072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="tx2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="tx2"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.33104174160971E-2"/>
+          <c:y val="0.17399131020088512"/>
+          <c:w val="0.93298799578986635"/>
+          <c:h val="0.80271606659122552"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="matte"/>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="51FF21"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D2BC-4951-98B3-E41274AF2CA1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D2BC-4951-98B3-E41274AF2CA1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-D2BC-4951-98B3-E41274AF2CA1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
               </c:ext>
@@ -622,20 +1158,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-C5E1-437A-A52D-DCB97CB8ED06}"/>
+              <c16:uniqueId val="{00000006-D2BC-4951-98B3-E41274AF2CA1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -817,9 +1353,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -846,13 +1380,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1041,9 +1575,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1070,13 +1602,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1166,7 +1698,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1216,7 +1747,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1290,7 +1820,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1364,7 +1893,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1463,7 +1991,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1556,7 +2083,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1606,7 +2132,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1680,7 +2205,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -1754,7 +2278,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -1851,7 +2374,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:ln>
@@ -1931,7 +2453,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1981,7 +2502,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2055,7 +2575,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2129,7 +2648,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2221,7 +2739,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2284,12 +2801,12 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1200" b="0">
+              <a:rPr lang="en-US" sz="1400" b="0">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Scenario \ Step Count</a:t>
+              <a:t>Scenarios</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2349,71 +2866,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$21:$B$30</c:f>
+              <c:f>Scenarios!$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Scenario 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Scenario 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Scenario 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Scenario 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Scenario 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Scenario 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Scenario 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Scenario 8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Scenario 9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Scenario 10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$H$21:$H$30</c:f>
+              <c:f>Scenarios!$H$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2425,7 +2894,7 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -2470,71 +2939,35 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$21:$B$30</c:f>
+              <c:f>Scenarios!$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Scenario 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Scenario 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Scenario 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Scenario 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Scenario 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Scenario 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Scenario 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Scenario 8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Scenario 9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Scenario 10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$J$21:$J$30</c:f>
+              <c:f>Scenarios!$J$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2E13-4772-A58C-E37B2BA89DB7}"/>
+              <c16:uniqueId val="{00000002-2E13-4772-A58C-E37B2BA89DB7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="1"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
@@ -2556,6 +2989,16 @@
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-34F2-42B1-B839-51FD58721389}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -2579,60 +3022,30 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$21:$B$30</c:f>
+              <c:f>Scenarios!$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Scenario 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Scenario 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Scenario 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Scenario 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Scenario 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Scenario 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Scenario 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Scenario 8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Scenario 9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Scenario 10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$I$21:$I$30</c:f>
+              <c:f>Scenarios!$I$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2E13-4772-A58C-E37B2BA89DB7}"/>
+              <c16:uniqueId val="{00000001-2E13-4772-A58C-E37B2BA89DB7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2672,12 +3085,34 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Steps</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="none"/>
         <c:crossAx val="62860288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -2712,6 +3147,233 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.2858134693485639E-2"/>
+          <c:y val="0.17364592842131704"/>
+          <c:w val="0.96715927750410513"/>
+          <c:h val="0.78524645049290098"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="matte"/>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="51FF21"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-012F-4AE0-9B30-C14C76CB6C4B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-012F-4AE0-9B30-C14C76CB6C4B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-012F-4AE0-9B30-C14C76CB6C4B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$E$2:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Scenarios Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scenarios Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scenarios Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$F$2:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-012F-4AE0-9B30-C14C76CB6C4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="40"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3109,395 +3771,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t>Feature \ Scenario Count</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Features!$F$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SCENARIO PASS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="51FF21"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Features!$B$21:$B$25</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Feature 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feature 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Feature 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Feature 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Feature 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Features!$F$21:$F$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5768-4C55-9686-6251C2C8BD33}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Features!$H$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SCENARIO SKIP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFFF00"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Features!$B$21:$B$25</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Feature 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feature 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Feature 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Feature 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Feature 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Features!$H$21:$H$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5768-4C55-9686-6251C2C8BD33}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Features!$G$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SCENARIO FAIL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Features!$B$21:$B$25</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Feature 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feature 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Feature 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Feature 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Feature 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Features!$G$21:$G$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5768-4C55-9686-6251C2C8BD33}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="62483072"/>
-        <c:axId val="62415232"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="62483072"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="62415232"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="62415232"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62483072"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
-        <c:minorUnit val="0.1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="tx2"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="tx2"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
@@ -3783,7 +4056,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>2 m 37 s</a:t>
+            <a:t>1 h 2 m 37 s</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2000">
             <a:solidFill>
@@ -4165,7 +4438,7 @@
                       </a:solidFill>
                     </a:rPr>
                     <a:pPr algn="ctr"/>
-                    <a:t>5</a:t>
+                    <a:t>1</a:t>
                   </a:fld>
                   <a:endParaRPr lang="en-US" sz="1200" b="0">
                     <a:solidFill>
@@ -4219,7 +4492,7 @@
                       </a:solidFill>
                     </a:rPr>
                     <a:pPr algn="ctr"/>
-                    <a:t>3</a:t>
+                    <a:t>1</a:t>
                   </a:fld>
                   <a:endParaRPr lang="en-US" sz="1200" b="0">
                     <a:solidFill>
@@ -4273,7 +4546,7 @@
                       </a:solidFill>
                     </a:rPr>
                     <a:pPr algn="ctr"/>
-                    <a:t>2</a:t>
+                    <a:t>1</a:t>
                   </a:fld>
                   <a:endParaRPr lang="en-US" sz="1200" b="0">
                     <a:solidFill>
@@ -4484,7 +4757,7 @@
                   <a:latin typeface="Calibri"/>
                 </a:rPr>
                 <a:pPr algn="ctr"/>
-                <a:t>20</a:t>
+                <a:t>1</a:t>
               </a:fld>
               <a:endParaRPr lang="en-US" sz="1200" b="0">
                 <a:solidFill>
@@ -4539,7 +4812,7 @@
                   <a:latin typeface="Calibri"/>
                 </a:rPr>
                 <a:pPr algn="ctr"/>
-                <a:t>7</a:t>
+                <a:t>1</a:t>
               </a:fld>
               <a:endParaRPr lang="en-US" sz="1200" b="0">
                 <a:solidFill>
@@ -4594,7 +4867,7 @@
                   <a:latin typeface="Calibri"/>
                 </a:rPr>
                 <a:pPr algn="ctr"/>
-                <a:t>3</a:t>
+                <a:t>1</a:t>
               </a:fld>
               <a:endParaRPr lang="en-US" sz="1200" b="0">
                 <a:solidFill>
@@ -4803,7 +5076,7 @@
                   <a:latin typeface="Calibri"/>
                 </a:rPr>
                 <a:pPr algn="ctr"/>
-                <a:t>60</a:t>
+                <a:t>1</a:t>
               </a:fld>
               <a:endParaRPr lang="en-US" sz="1200" b="0">
                 <a:solidFill>
@@ -4858,7 +5131,7 @@
                   <a:latin typeface="Calibri"/>
                 </a:rPr>
                 <a:pPr algn="ctr"/>
-                <a:t>15</a:t>
+                <a:t>1</a:t>
               </a:fld>
               <a:endParaRPr lang="en-US" sz="1200" b="0">
                 <a:solidFill>
@@ -4913,7 +5186,7 @@
                   <a:latin typeface="Calibri"/>
                 </a:rPr>
                 <a:pPr algn="ctr"/>
-                <a:t>10</a:t>
+                <a:t>1</a:t>
               </a:fld>
               <a:endParaRPr lang="en-US" sz="1200" b="0">
                 <a:solidFill>
@@ -5196,7 +5469,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>10</a:t>
+            <a:t>3</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -5363,7 +5636,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>30</a:t>
+            <a:t>3</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -5530,7 +5803,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>85</a:t>
+            <a:t>3</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -5549,15 +5822,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
+      <xdr:colOff>1828800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5576,10 +5849,505 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1800224</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>29019</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="FeatureDough"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1533525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rounded Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323850" y="180975"/>
+          <a:ext cx="1304925" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="51FF21"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PASSED</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FAILED</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SKIPPED</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1514476</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85503</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$F$2">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="971550" y="200025"/>
+          <a:ext cx="638176" cy="266478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{5E830E56-6EF0-481D-AF4F-B51C1C996EFA}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="51FF21"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>1</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>13759</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1504950</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>89737</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$F$3">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962025" y="394759"/>
+          <a:ext cx="638175" cy="266478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{BD0EF753-9A18-4975-B169-ECA4EE0CEA9F}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>1</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>866776</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>189444</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1514476</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85169</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$F$4">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962026" y="570444"/>
+          <a:ext cx="647700" cy="276725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{A34595C3-6342-4982-8F51-D73860015449}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>1</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.28095</cdr:x>
+      <cdr:y>0.38583</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.75714</cdr:x>
+      <cdr:y>0.76772</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="'DB Data'!$F$5">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 21"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="561975" y="933452"/>
+          <a:ext cx="952500" cy="923924"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:scene3d xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:fld id="{EC401DB1-A780-48C9-8D04-3C77257FD87B}" type="TxLink">
+            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>3</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
@@ -5614,20 +6382,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1800225</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5646,28 +6414,502 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1743075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190223</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="FeatureDough"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1428749</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rounded Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="190501"/>
+          <a:ext cx="1257299" cy="685799"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="51FF21"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PASSED</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FAILED</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SKIPPED</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1409700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104553</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$D$2">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="981075" y="219075"/>
+          <a:ext cx="561975" cy="266478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{41487303-CB05-47E9-B96D-7F5847EFEAA3}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="27F959"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>1</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="27F959"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>847724</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>13758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1400175</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>89736</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$D$3">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="981074" y="394758"/>
+          <a:ext cx="552451" cy="266478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{B77A6D75-C39D-49DE-828E-57821B240FA1}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>1</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>8469</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1419226</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>94694</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$D$4">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="971550" y="579969"/>
+          <a:ext cx="581026" cy="276725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{7219BB06-5362-46C7-AE8B-8D4E64C9DED1}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>1</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B20:J30" totalsRowShown="0">
-  <autoFilter ref="B20:J30"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="SCENARIO NAME"/>
-    <tableColumn id="2" name="SCENARIO STATUS"/>
-    <tableColumn id="3" name="DURATION" dataDxfId="1"/>
-    <tableColumn id="4" name="FEATURE NAME"/>
-    <tableColumn id="5" name="FEATURE STATUS"/>
-    <tableColumn id="6" name="STEP TOTAL"/>
-    <tableColumn id="7" name="STEP PASS"/>
-    <tableColumn id="8" name="STEP FAIL"/>
-    <tableColumn id="9" name="STEP SKIP"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.28095</cdr:x>
+      <cdr:y>0.38583</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.75714</cdr:x>
+      <cdr:y>0.76772</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="'DB Data'!$D$5">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 21"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="602111" y="1142827"/>
+          <a:ext cx="1020535" cy="1131157"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:scene3d xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:fld id="{5501BE5E-9668-4CE4-A888-5F85DFC126EE}" type="TxLink">
+            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>3</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B20:F25" totalsRowShown="0">
   <autoFilter ref="B20:F25"/>
   <tableColumns count="5">
@@ -5676,26 +6918,6 @@
     <tableColumn id="3" name="SCENARIO PASS"/>
     <tableColumn id="4" name="SCENARIO FAIL"/>
     <tableColumn id="5" name="SCENARIO SKIP"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B20:L25" totalsRowShown="0">
-  <autoFilter ref="B20:L25"/>
-  <tableColumns count="11">
-    <tableColumn id="1" name="FEATURE NAME"/>
-    <tableColumn id="2" name="STATUS"/>
-    <tableColumn id="3" name="DURATION" dataDxfId="0"/>
-    <tableColumn id="4" name="SCENARIO TOTAL"/>
-    <tableColumn id="5" name="SCENARIO PASS"/>
-    <tableColumn id="6" name="SCENARIO FAIL"/>
-    <tableColumn id="7" name="SCENARIO SKIP"/>
-    <tableColumn id="8" name="STEP TOTAL"/>
-    <tableColumn id="9" name="STEP PASS"/>
-    <tableColumn id="10" name="STEP FAIL"/>
-    <tableColumn id="11" name="STEP SKIP"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5990,7 +7212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B19:G60"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
@@ -6006,56 +7228,56 @@
   </cols>
   <sheetData>
     <row r="19" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G19" s="7"/>
+      <c r="G19" s="6"/>
     </row>
     <row r="37" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B37" s="8" t="s">
-        <v>81</v>
+      <c r="B37" s="7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>34</v>
+      <c r="B38" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
     </row>
     <row r="59" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B59" s="8" t="s">
-        <v>83</v>
+      <c r="B59" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C60" s="12"/>
-      <c r="D60" s="9" t="s">
+      <c r="B60" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" s="13"/>
+      <c r="D60" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" s="13"/>
+      <c r="G60" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F60" s="12"/>
-      <c r="G60" s="9" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -6073,304 +7295,83 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B20:J30"/>
+  <dimension ref="B20:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="E21" sqref="E21:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="B20" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G20" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" t="s">
-        <v>57</v>
-      </c>
-      <c r="I20" t="s">
-        <v>58</v>
-      </c>
-      <c r="J20" t="s">
-        <v>59</v>
+      <c r="D20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="6">
-        <v>5.9027777777777778E-4</v>
-      </c>
       <c r="E21" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="6">
-        <v>1.7754629629629631E-3</v>
-      </c>
-      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
         <v>3</v>
-      </c>
-      <c r="F22" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>6</v>
-      </c>
-      <c r="H22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="6">
-        <v>7.1527777777777779E-4</v>
-      </c>
-      <c r="E23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="6">
-        <v>2.3148148148148146E-4</v>
-      </c>
-      <c r="E24" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" t="s">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>7</v>
-      </c>
-      <c r="H24">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="6">
-        <v>2.2604166666666667E-3</v>
-      </c>
-      <c r="E25" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>4</v>
-      </c>
-      <c r="H25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="6">
-        <v>5.8449074074074078E-4</v>
-      </c>
-      <c r="E26" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>4</v>
-      </c>
-      <c r="H26">
-        <v>2</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="6">
-        <v>3.1597222222222222E-3</v>
-      </c>
-      <c r="E27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" t="s">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>5</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="6">
-        <v>7.1527777777777779E-4</v>
-      </c>
-      <c r="E28" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" t="s">
-        <v>2</v>
-      </c>
-      <c r="G28">
-        <v>3</v>
-      </c>
-      <c r="J28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="6">
-        <v>6.4120370370370373E-4</v>
-      </c>
-      <c r="E29" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" t="s">
-        <v>2</v>
-      </c>
-      <c r="G29">
-        <v>4</v>
-      </c>
-      <c r="J29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="6">
-        <v>2.2604166666666667E-3</v>
-      </c>
-      <c r="E30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" t="s">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>6</v>
-      </c>
-      <c r="H30">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -6399,24 +7400,24 @@
   <sheetData>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -6433,7 +7434,7 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C22">
         <v>8</v>
@@ -6444,7 +7445,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -6461,7 +7462,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C24">
         <v>10</v>
@@ -6478,7 +7479,7 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -6499,26 +7500,19 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B18:L25"/>
+  <dimension ref="B18:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:L25"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="12" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
@@ -6526,174 +7520,76 @@
       <c r="E18" s="5"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" t="s">
-        <v>55</v>
-      </c>
-      <c r="I20" t="s">
-        <v>56</v>
-      </c>
-      <c r="J20" t="s">
-        <v>57</v>
-      </c>
-      <c r="K20" t="s">
-        <v>58</v>
-      </c>
-      <c r="L20" t="s">
-        <v>59</v>
+      <c r="B20" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="6">
-        <v>5.8449074074074078E-4</v>
-      </c>
       <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
         <v>2</v>
       </c>
-      <c r="F21">
+      <c r="I21">
+        <v>6</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
         <v>2</v>
       </c>
-      <c r="I21">
-        <v>8</v>
-      </c>
-      <c r="J21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="6">
-        <v>5.7870370370370378E-4</v>
-      </c>
-      <c r="E22">
+      <c r="L21">
         <v>3</v>
-      </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
-      <c r="I22">
-        <v>5</v>
-      </c>
-      <c r="J22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="6">
-        <v>1.2731481481481483E-3</v>
-      </c>
-      <c r="E23">
-        <v>4</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>12</v>
-      </c>
-      <c r="J23">
-        <v>8</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="6">
-        <v>1.7939814814814815E-3</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="H24">
-        <v>2</v>
-      </c>
-      <c r="I24">
-        <v>4</v>
-      </c>
-      <c r="L24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="6">
-        <v>5.7870370370370378E-4</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>5</v>
-      </c>
-      <c r="J25">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -6714,104 +7610,104 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="29" spans="2:4" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
@@ -6827,7 +7723,7 @@
   <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6857,182 +7753,179 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
       <c r="F2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H2">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H3">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
         <v>16</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
       <c r="H4">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <f>SUM(D2:D4)</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F5">
-        <f>SUM(F2:F4)</f>
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H5">
-        <f>SUM(H2:H4)</f>
-        <v>85</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" t="s">
-        <v>69</v>
-      </c>
-      <c r="I19" t="s">
-        <v>70</v>
-      </c>
-      <c r="J19" t="s">
-        <v>65</v>
-      </c>
-      <c r="K19" t="s">
-        <v>66</v>
-      </c>
-      <c r="L19" t="s">
-        <v>67</v>
-      </c>
-      <c r="P19" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>72</v>
-      </c>
-      <c r="R19" t="s">
-        <v>73</v>
-      </c>
-      <c r="S19" t="s">
-        <v>74</v>
-      </c>
-      <c r="T19" t="s">
-        <v>75</v>
+      <c r="A19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="S19" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="T19" s="10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -7044,10 +7937,10 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="I20" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -7059,10 +7952,10 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="Q20" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="R20">
         <v>1</v>

--- a/src/main/resources/templates/report template - All DB.xlsx
+++ b/src/main/resources/templates/report template - All DB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" tabRatio="785" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" tabRatio="785" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="11" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
   <si>
     <t>Passed</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Steps Skipped</t>
   </si>
   <si>
-    <t>NAME</t>
-  </si>
-  <si>
     <t>DURATION</t>
   </si>
   <si>
@@ -120,18 +117,6 @@
   </si>
   <si>
     <t>tag1</t>
-  </si>
-  <si>
-    <t>tag2</t>
-  </si>
-  <si>
-    <t>tag3</t>
-  </si>
-  <si>
-    <t>tag4</t>
-  </si>
-  <si>
-    <t>tag5</t>
   </si>
   <si>
     <t>Excel Extent Report</t>
@@ -235,12 +220,15 @@
   <si>
     <t>1 h 2 m 37 s</t>
   </si>
+  <si>
+    <t>tag</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +263,15 @@
       <b/>
       <i/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -353,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -365,10 +362,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,7 +650,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -700,7 +699,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -774,7 +772,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -848,7 +845,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -941,7 +937,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1129,9 +1124,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3402,11 +3395,12 @@
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Tag \ Scenario Count</a:t>
+              <a:t>Tags</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3456,50 +3450,30 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$21:$B$25</c:f>
+              <c:f>Tags!$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>tag1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>tag2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>tag3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>tag4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>tag5</c:v>
+                  <c:v>tag</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$D$21:$D$25</c:f>
+              <c:f>Tags!$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3550,50 +3524,30 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$21:$B$25</c:f>
+              <c:f>Tags!$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>tag1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>tag2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>tag3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>tag4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>tag5</c:v>
+                  <c:v>tag</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$F$21:$F$25</c:f>
+              <c:f>Tags!$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3644,47 +3598,30 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$21:$B$25</c:f>
+              <c:f>Tags!$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>tag1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>tag2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>tag3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>tag4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>tag5</c:v>
+                  <c:v>tag</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$E$21:$E$25</c:f>
+              <c:f>Tags!$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3731,12 +3668,35 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="none"/>
         <c:crossAx val="62946688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -6357,8 +6317,8 @@
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
@@ -6907,20 +6867,6 @@
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B20:F25" totalsRowShown="0">
-  <autoFilter ref="B20:F25"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="NAME"/>
-    <tableColumn id="2" name="SCENARIO TOTAL"/>
-    <tableColumn id="3" name="SCENARIO PASS"/>
-    <tableColumn id="4" name="SCENARIO FAIL"/>
-    <tableColumn id="5" name="SCENARIO SKIP"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7212,8 +7158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B19:G60"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView showGridLines="0" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7232,23 +7178,23 @@
     </row>
     <row r="37" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="13"/>
       <c r="F38" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7261,23 +7207,23 @@
     </row>
     <row r="59" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F60" s="13"/>
       <c r="G60" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -7298,7 +7244,7 @@
   <dimension ref="B20:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:F21"/>
+      <selection activeCell="B20" sqref="B20:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7315,36 +7261,36 @@
   <sheetData>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>19</v>
-      </c>
       <c r="F20" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
@@ -7378,122 +7324,82 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="B20:F25"/>
+  <dimension ref="B20:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:F25"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="50.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" t="s">
-        <v>39</v>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
         <v>2</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
       <c r="F21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22">
-        <v>8</v>
-      </c>
-      <c r="D22">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23">
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24">
-        <v>10</v>
-      </c>
-      <c r="D24">
-        <v>5</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>3</v>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="11" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7502,8 +7408,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B18:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7521,37 +7427,37 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="11" t="s">
+      <c r="L20" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
@@ -7610,104 +7516,104 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="29" spans="2:4" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
@@ -7761,7 +7667,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -7787,7 +7693,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -7813,7 +7719,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -7839,22 +7745,22 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -7865,67 +7771,67 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="R19" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="10" t="s">
+      <c r="S19" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="T19" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="P19" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q19" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="R19" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="S19" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="T19" s="10" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -7937,10 +7843,10 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I20" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -7952,10 +7858,10 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="Q20" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="R20">
         <v>1</v>

--- a/src/main/resources/templates/report template - All DB.xlsx
+++ b/src/main/resources/templates/report template - All DB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" tabRatio="785" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" tabRatio="785"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="11" r:id="rId1"/>
@@ -539,7 +539,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1346,7 +1348,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1568,7 +1572,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1691,6 +1697,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1740,6 +1747,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1813,6 +1821,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1886,6 +1895,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1984,6 +1994,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2804,6 +2815,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2853,6 +2865,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2926,6 +2939,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3009,6 +3023,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3100,6 +3115,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3285,7 +3301,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3400,7 +3418,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3450,7 +3467,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3524,7 +3540,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3598,7 +3613,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3690,7 +3704,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -7158,7 +7171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B19:G60"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
@@ -7326,7 +7339,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B20:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <selection activeCell="C24" sqref="C24:E24"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/templates/report template - All DB.xlsx
+++ b/src/main/resources/templates/report template - All DB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" tabRatio="785"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" tabRatio="785" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="11" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="Chart1">Scenarios!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -414,9 +414,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.2840722495894911E-2"/>
-          <c:y val="0.18503978341290014"/>
-          <c:w val="0.96715927750410513"/>
+          <c:x val="3.2840722495894918E-2"/>
+          <c:y val="0.1850397834129002"/>
+          <c:w val="0.96715927750410535"/>
           <c:h val="0.78524645049290098"/>
         </c:manualLayout>
       </c:layout>
@@ -599,7 +599,7 @@
       </c:doughnutChart>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -610,7 +610,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -652,6 +652,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -701,6 +702,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -774,6 +776,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -847,6 +850,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -890,11 +894,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="62483072"/>
-        <c:axId val="62415232"/>
+        <c:axId val="46512000"/>
+        <c:axId val="46513536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62483072"/>
+        <c:axId val="46512000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -904,7 +908,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="62415232"/>
+        <c:crossAx val="46513536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -912,7 +916,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62415232"/>
+        <c:axId val="46513536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -939,13 +943,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="62483072"/>
+        <c:crossAx val="46512000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -974,7 +979,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1001,9 +1006,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.33104174160971E-2"/>
-          <c:y val="0.17399131020088512"/>
-          <c:w val="0.93298799578986635"/>
+          <c:x val="5.3310417416097107E-2"/>
+          <c:y val="0.17399131020088515"/>
+          <c:w val="0.93298799578986624"/>
           <c:h val="0.80271606659122552"/>
         </c:manualLayout>
       </c:layout>
@@ -1126,7 +1131,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1184,7 +1191,7 @@
       </c:doughnutChart>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1195,7 +1202,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1223,9 +1230,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.2840722495894911E-2"/>
-          <c:y val="0.18503978341290014"/>
-          <c:w val="0.96715927750410513"/>
+          <c:x val="3.2840722495894918E-2"/>
+          <c:y val="0.1850397834129002"/>
+          <c:w val="0.96715927750410535"/>
           <c:h val="0.78524645049290098"/>
         </c:manualLayout>
       </c:layout>
@@ -1408,7 +1415,7 @@
       </c:doughnutChart>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1419,7 +1426,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1449,8 +1456,8 @@
           <c:yMode val="edge"/>
           <c:x val="2.1956398307354442E-2"/>
           <c:y val="0.2285106433959492"/>
-          <c:w val="0.97260142482189726"/>
-          <c:h val="0.72141920882644162"/>
+          <c:w val="0.97260142482189749"/>
+          <c:h val="0.7214192088264415"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -1632,7 +1639,7 @@
       </c:doughnutChart>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1643,7 +1650,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1939,11 +1946,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="62946688"/>
-        <c:axId val="62968960"/>
+        <c:axId val="46151168"/>
+        <c:axId val="46117248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62946688"/>
+        <c:axId val="46151168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1953,7 +1960,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="62968960"/>
+        <c:crossAx val="46117248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1961,7 +1968,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62968960"/>
+        <c:axId val="46117248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2001,7 +2008,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="62946688"/>
+        <c:crossAx val="46151168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2028,7 +2035,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2325,11 +2332,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="62483072"/>
-        <c:axId val="62415232"/>
+        <c:axId val="46193280"/>
+        <c:axId val="46285184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62483072"/>
+        <c:axId val="46193280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2339,7 +2346,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="62415232"/>
+        <c:crossAx val="46285184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2347,7 +2354,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62415232"/>
+        <c:axId val="46285184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2389,7 +2396,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="62483072"/>
+        <c:crossAx val="46193280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2417,7 +2424,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2695,11 +2702,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="62860288"/>
-        <c:axId val="62870272"/>
+        <c:axId val="46328448"/>
+        <c:axId val="46408064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62860288"/>
+        <c:axId val="46328448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2709,7 +2716,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="62870272"/>
+        <c:crossAx val="46408064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2717,7 +2724,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62870272"/>
+        <c:axId val="46408064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2749,7 +2756,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="62860288"/>
+        <c:crossAx val="46328448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2775,7 +2782,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2996,16 +3003,6 @@
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-34F2-42B1-B839-51FD58721389}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -3067,11 +3064,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="62860288"/>
-        <c:axId val="62870272"/>
+        <c:axId val="89325952"/>
+        <c:axId val="44310528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62860288"/>
+        <c:axId val="89325952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3081,7 +3078,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="62870272"/>
+        <c:crossAx val="44310528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3089,7 +3086,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62870272"/>
+        <c:axId val="44310528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3122,7 +3119,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="62860288"/>
+        <c:crossAx val="89325952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3149,7 +3146,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3178,7 +3175,7 @@
           <c:yMode val="edge"/>
           <c:x val="2.2858134693485639E-2"/>
           <c:y val="0.17364592842131704"/>
-          <c:w val="0.96715927750410513"/>
+          <c:w val="0.96715927750410535"/>
           <c:h val="0.78524645049290098"/>
         </c:manualLayout>
       </c:layout>
@@ -3366,7 +3363,7 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -3377,7 +3374,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -3656,11 +3653,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="62946688"/>
-        <c:axId val="62968960"/>
+        <c:axId val="46589440"/>
+        <c:axId val="46590976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62946688"/>
+        <c:axId val="46589440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3670,7 +3667,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="62968960"/>
+        <c:crossAx val="46590976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3678,7 +3675,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62968960"/>
+        <c:axId val="46590976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3710,7 +3707,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="62946688"/>
+        <c:crossAx val="46589440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3738,7 +3735,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4280,9 +4277,9 @@
             <xdr:grpSpPr>
               <a:xfrm>
                 <a:off x="247651" y="696672"/>
-                <a:ext cx="1257299" cy="818167"/>
+                <a:ext cx="1280160" cy="849795"/>
                 <a:chOff x="247651" y="696672"/>
-                <a:chExt cx="1257299" cy="818167"/>
+                <a:chExt cx="1280160" cy="849795"/>
               </a:xfrm>
             </xdr:grpSpPr>
             <xdr:sp macro="" textlink="">
@@ -4293,7 +4290,7 @@
               <xdr:spPr>
                 <a:xfrm>
                   <a:off x="247651" y="696672"/>
-                  <a:ext cx="1257299" cy="818167"/>
+                  <a:ext cx="1280160" cy="849795"/>
                 </a:xfrm>
                 <a:prstGeom prst="roundRect">
                   <a:avLst/>
@@ -4611,7 +4608,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="4143375" y="696671"/>
-              <a:ext cx="1304925" cy="818167"/>
+              <a:ext cx="1280160" cy="849796"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
               <a:avLst/>
@@ -4930,7 +4927,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="8067676" y="696672"/>
-              <a:ext cx="1323974" cy="888983"/>
+              <a:ext cx="1280160" cy="849796"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
               <a:avLst/>
@@ -5177,8 +5174,8 @@
             </xdr:cNvGraphicFramePr>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
-            <a:off x="9410699" y="45400"/>
-            <a:ext cx="2333625" cy="3089361"/>
+            <a:off x="9334500" y="45400"/>
+            <a:ext cx="2409825" cy="3089361"/>
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5859,13 +5856,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1533525</xdr:colOff>
+      <xdr:colOff>1508760</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>150494</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5874,8 +5871,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="323850" y="180975"/>
-          <a:ext cx="1304925" cy="676275"/>
+          <a:off x="323850" y="180974"/>
+          <a:ext cx="1280160" cy="731520"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6422,15 +6419,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>171449</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1428749</xdr:colOff>
+      <xdr:colOff>1451609</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6439,8 +6436,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="304800" y="190501"/>
-          <a:ext cx="1257299" cy="685799"/>
+          <a:off x="304799" y="190500"/>
+          <a:ext cx="1280160" cy="731520"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -7171,8 +7168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B19:G60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7256,8 +7253,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B20:J21"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:J20"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7422,7 +7419,7 @@
   <dimension ref="B18:L21"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:L20"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/templates/report template - All DB.xlsx
+++ b/src/main/resources/templates/report template - All DB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" tabRatio="785" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" tabRatio="785" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="11" r:id="rId1"/>
@@ -599,7 +599,7 @@
       </c:doughnutChart>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1191,7 +1191,7 @@
       </c:doughnutChart>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1415,7 +1415,7 @@
       </c:doughnutChart>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1639,7 +1639,7 @@
       </c:doughnutChart>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2094,6 +2094,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2143,6 +2144,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2216,6 +2218,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -2289,6 +2292,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -2385,6 +2389,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:ln>
@@ -2464,6 +2469,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2513,6 +2519,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2586,6 +2593,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2659,6 +2667,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2750,6 +2759,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3363,7 +3373,7 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -4689,7 +4699,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4800600" y="921802"/>
+              <a:off x="4800600" y="930654"/>
               <a:ext cx="647700" cy="247651"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4744,7 +4754,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4800599" y="1085074"/>
+              <a:off x="4800599" y="1111630"/>
               <a:ext cx="657225" cy="247651"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4799,7 +4809,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4800600" y="1248346"/>
+              <a:off x="4800600" y="1292606"/>
               <a:ext cx="647700" cy="257174"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5008,7 +5018,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8743950" y="957211"/>
+              <a:off x="8724900" y="930655"/>
               <a:ext cx="638175" cy="247651"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5063,7 +5073,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8715375" y="1129334"/>
+              <a:off x="8705850" y="1120481"/>
               <a:ext cx="676275" cy="247651"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5118,7 +5128,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8724899" y="1301458"/>
+              <a:off x="8724899" y="1292606"/>
               <a:ext cx="657225" cy="257174"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5794,13 +5804,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1828800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6012,13 +6022,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>866775</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>13759</xdr:rowOff>
+      <xdr:rowOff>23284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1504950</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>89737</xdr:rowOff>
+      <xdr:rowOff>99262</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'DB Data'!$F$3">
       <xdr:nvSpPr>
@@ -6027,7 +6037,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="962025" y="394759"/>
+          <a:off x="962025" y="404284"/>
           <a:ext cx="638175" cy="266478"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6081,14 +6091,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>866776</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>189444</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>17994</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1514476</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>85169</xdr:rowOff>
+      <xdr:rowOff>104219</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'DB Data'!$F$4">
       <xdr:nvSpPr>
@@ -6097,7 +6107,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="962026" y="570444"/>
+          <a:off x="962026" y="589494"/>
           <a:ext cx="647700" cy="276725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6324,13 +6334,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6359,13 +6369,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1800225</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6576,13 +6586,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>847724</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>13758</xdr:rowOff>
+      <xdr:rowOff>32808</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1400175</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>89736</xdr:rowOff>
+      <xdr:rowOff>108786</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'DB Data'!$D$3">
       <xdr:nvSpPr>
@@ -6591,7 +6601,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="981074" y="394758"/>
+          <a:off x="981074" y="413808"/>
           <a:ext cx="552451" cy="266478"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6645,13 +6655,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>838200</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>8469</xdr:rowOff>
+      <xdr:rowOff>27519</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1419226</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>94694</xdr:rowOff>
+      <xdr:rowOff>113744</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'DB Data'!$D$4">
       <xdr:nvSpPr>
@@ -6660,7 +6670,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="971550" y="579969"/>
+          <a:off x="971550" y="599019"/>
           <a:ext cx="581026" cy="276725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7169,7 +7179,7 @@
   <dimension ref="B19:G60"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7253,8 +7263,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B20:J21"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7337,7 +7347,7 @@
   <dimension ref="B20:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:E24"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7418,8 +7428,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B18:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7638,7 +7648,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/templates/report template - All DB.xlsx
+++ b/src/main/resources/templates/report template - All DB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" tabRatio="785" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" tabRatio="785"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="11" r:id="rId1"/>
@@ -652,7 +652,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -702,7 +701,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -776,7 +774,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -850,7 +847,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -943,7 +939,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1131,9 +1126,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2094,7 +2087,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2144,7 +2136,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2218,7 +2209,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -2292,7 +2282,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -2389,7 +2378,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:ln>
@@ -2469,7 +2457,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2519,7 +2506,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2593,7 +2579,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2667,7 +2652,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2759,7 +2743,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2832,7 +2815,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2882,7 +2864,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2956,7 +2937,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3030,7 +3010,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3122,7 +3101,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3308,9 +3286,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -7178,7 +7154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B19:G60"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -7428,7 +7404,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B18:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/templates/report template - All DB.xlsx
+++ b/src/main/resources/templates/report template - All DB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse-workspace\extent-excel-report\src\main\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel Extent\Big Scenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,13 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>Feature 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="65">
   <si>
     <t>Duration</t>
   </si>
@@ -95,12 +89,6 @@
     <t>FEATURE STATUS</t>
   </si>
   <si>
-    <t>Nov 18 2022, 3:30 PM</t>
-  </si>
-  <si>
-    <t>Nov 18 2022, 3:32 PM</t>
-  </si>
-  <si>
     <t>Features Total</t>
   </si>
   <si>
@@ -111,12 +99,6 @@
   </si>
   <si>
     <t>SCENARIO STATUS</t>
-  </si>
-  <si>
-    <t>Scenario 1</t>
-  </si>
-  <si>
-    <t>tag1</t>
   </si>
   <si>
     <t>Excel Extent Report</t>
@@ -218,7 +200,25 @@
     <t>FAILED &amp; SKIPPED SCENARIOS</t>
   </si>
   <si>
-    <t>1 h 2 m 37 s</t>
+    <t>Jan 06, 2023 2:45:11 PM</t>
+  </si>
+  <si>
+    <t>Jan 06, 2023 2:45:09 PM</t>
+  </si>
+  <si>
+    <t>0.253 s</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>0.015 s</t>
+  </si>
+  <si>
+    <t>0.023 s</t>
+  </si>
+  <si>
+    <t>tag1</t>
   </si>
   <si>
     <t>tag</t>
@@ -228,7 +228,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +277,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00FF00"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00FF00"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00FF00"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -286,7 +325,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -346,11 +385,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -363,9 +426,72 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -414,8 +540,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.2840722495894918E-2"/>
-          <c:y val="0.1850397834129002"/>
+          <c:x val="3.2823665966057035E-2"/>
+          <c:y val="0.18503976548058501"/>
           <c:w val="0.96715927750410535"/>
           <c:h val="0.78524645049290098"/>
         </c:manualLayout>
@@ -571,7 +697,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -707,18 +833,18 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$21</c:f>
+              <c:f>Features!$B$21:$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Feature 1</c:v>
+                  <c:v>Feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$F$21</c:f>
+              <c:f>Features!$F$21:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -780,23 +906,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$21</c:f>
+              <c:f>Features!$B$21:$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Feature 1</c:v>
+                  <c:v>Feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$H$21</c:f>
+              <c:f>Features!$H$21:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -853,23 +979,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$21</c:f>
+              <c:f>Features!$B$21:$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Feature 1</c:v>
+                  <c:v>Feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$G$21</c:f>
+              <c:f>Features!$G$21:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1156,7 +1282,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -1223,10 +1349,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.2840722495894918E-2"/>
-          <c:y val="0.1850397834129002"/>
-          <c:w val="0.96715927750410535"/>
-          <c:h val="0.78524645049290098"/>
+          <c:x val="4.4867807619937916E-2"/>
+          <c:y val="4.6638140302884677E-2"/>
+          <c:w val="0.90814427306175771"/>
+          <c:h val="0.93372580188039878"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -1335,7 +1461,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -1377,13 +1503,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1447,10 +1573,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.1956398307354442E-2"/>
-          <c:y val="0.2285106433959492"/>
-          <c:w val="0.97260142482189749"/>
-          <c:h val="0.7214192088264415"/>
+          <c:x val="5.1858952413557008E-2"/>
+          <c:y val="0.17474711947447277"/>
+          <c:w val="0.91710518398638907"/>
+          <c:h val="0.77966294826254767"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -1601,7 +1727,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -1754,7 +1880,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$A$20</c:f>
+              <c:f>'DB Data'!$A$20:$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1765,12 +1891,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$B$20</c:f>
+              <c:f>'DB Data'!$B$20:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1828,7 +1954,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$A$20</c:f>
+              <c:f>'DB Data'!$A$20:$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1839,7 +1965,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$C$20</c:f>
+              <c:f>'DB Data'!$D$20:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1902,7 +2028,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$A$20</c:f>
+              <c:f>'DB Data'!$A$20:$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1913,12 +2039,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$D$20</c:f>
+              <c:f>'DB Data'!$C$20:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2087,6 +2213,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2136,29 +2263,30 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$H$19</c:f>
+              <c:f>'DB Data'!$H$20:$H$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Feature Name</c:v>
+                  <c:v>Feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$J$20</c:f>
+              <c:f>'DB Data'!$J$20:$J$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2209,24 +2337,25 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$H$19</c:f>
+              <c:f>'DB Data'!$H$20:$H$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Feature Name</c:v>
+                  <c:v>Feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$L$20</c:f>
+              <c:f>'DB Data'!$L$20:$L$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2282,29 +2411,30 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$H$19</c:f>
+              <c:f>'DB Data'!$H$20:$H$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Feature Name</c:v>
+                  <c:v>Feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$K$20</c:f>
+              <c:f>'DB Data'!$K$20:$K$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2378,6 +2508,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:ln>
@@ -2457,6 +2588,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2506,13 +2638,14 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$P$20</c:f>
+              <c:f>'DB Data'!$P$20:$P$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2523,12 +2656,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$R$20</c:f>
+              <c:f>'DB Data'!$R$20:$R$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2579,13 +2712,14 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$P$20</c:f>
+              <c:f>'DB Data'!$P$20:$P$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2596,7 +2730,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$S$20</c:f>
+              <c:f>'DB Data'!$T$20:$T$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2652,13 +2786,14 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$P$20</c:f>
+              <c:f>'DB Data'!$P$20:$P$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2669,12 +2804,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$T$20</c:f>
+              <c:f>'DB Data'!$S$20:$S$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2743,6 +2878,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2870,23 +3006,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$21</c:f>
+              <c:f>Scenarios!$B$21:$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Scenario 1</c:v>
+                  <c:v>Scenario</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$H$21</c:f>
+              <c:f>Scenarios!$H$21:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2943,23 +3079,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$21</c:f>
+              <c:f>Scenarios!$B$21:$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Scenario 1</c:v>
+                  <c:v>Scenario</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$J$21</c:f>
+              <c:f>Scenarios!$J$21:$J$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3016,18 +3152,18 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$21</c:f>
+              <c:f>Scenarios!$B$21:$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Scenario 1</c:v>
+                  <c:v>Scenario</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$I$21</c:f>
+              <c:f>Scenarios!$I$21:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3313,13 +3449,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3456,7 +3592,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$21</c:f>
+              <c:f>Tags!$B$21:$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3467,7 +3603,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$D$21</c:f>
+              <c:f>Tags!$D$21:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3529,7 +3665,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$21</c:f>
+              <c:f>Tags!$B$21:$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3540,7 +3676,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$F$21</c:f>
+              <c:f>Tags!$F$21:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3602,7 +3738,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$21</c:f>
+              <c:f>Tags!$B$21:$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3613,7 +3749,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$E$21</c:f>
+              <c:f>Tags!$E$21:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3731,16 +3867,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2352675</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>87630</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1575435</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3749,8 +3885,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8010525" y="104775"/>
-          <a:ext cx="3840480" cy="457200"/>
+          <a:off x="190500" y="76200"/>
+          <a:ext cx="3566160" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3758,8 +3894,10 @@
         <a:solidFill>
           <a:schemeClr val="tx2"/>
         </a:solidFill>
-        <a:ln>
-          <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3779,7 +3917,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -3806,16 +3944,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2628898</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>89533</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3824,8 +3962,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="200024" y="104775"/>
-          <a:ext cx="3802381" cy="457200"/>
+          <a:off x="8286748" y="76200"/>
+          <a:ext cx="3566160" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3833,8 +3971,10 @@
         <a:solidFill>
           <a:schemeClr val="tx2"/>
         </a:solidFill>
-        <a:ln>
-          <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3881,16 +4021,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2628899</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2268855</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>89534</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3899,8 +4039,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4086225" y="104775"/>
-          <a:ext cx="3840480" cy="457200"/>
+          <a:off x="8286749" y="495300"/>
+          <a:ext cx="3566160" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3908,8 +4048,10 @@
         <a:solidFill>
           <a:schemeClr val="tx2"/>
         </a:solidFill>
-        <a:ln>
-          <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3956,26 +4098,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3267075</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>904876</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1543051</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="&#10;'DB Data'!$B$6">
+    <xdr:sp macro="" textlink=" 'DB Data'!$B$6">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="TextBox 5"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8924925" y="104775"/>
-          <a:ext cx="2914650" cy="447675"/>
+          <a:off x="1038226" y="114300"/>
+          <a:ext cx="2686050" cy="695325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4005,16 +4147,16 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:fld id="{ED1868E5-AE56-4ACA-8944-337939004EF9}" type="TxLink">
-            <a:rPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike">
+            <a:rPr lang="en-US" sz="2600" b="1" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1 h 2 m 37 s</a:t>
+            <a:t>0.253 s</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="2000">
+          <a:endParaRPr lang="en-US" sz="2600" b="1">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -4026,26 +4168,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3657601</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="&#10;'DB Data'!$B$4">
+    <xdr:sp macro="" textlink=" 'DB Data'!$B$4">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="TextBox 6"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1190625" y="104774"/>
-          <a:ext cx="2743199" cy="428625"/>
+          <a:off x="9315451" y="85725"/>
+          <a:ext cx="2514600" cy="352426"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4070,7 +4212,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -4081,7 +4223,7 @@
               </a:solidFill>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>Nov 18 2022, 3:30 PM</a:t>
+            <a:t>Jan 06, 2023 2:45:09 PM</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1400">
             <a:solidFill>
@@ -4095,26 +4237,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1152525</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3638550</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2209800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="&#10;'DB Data'!$B$5">
+    <xdr:sp macro="" textlink=" 'DB Data'!$B$5">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="TextBox 7"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5048250" y="114299"/>
-          <a:ext cx="2819400" cy="428625"/>
+          <a:off x="9296400" y="504824"/>
+          <a:ext cx="2533650" cy="342901"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4139,7 +4281,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -4150,7 +4292,7 @@
               </a:solidFill>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>Nov 18 2022, 3:32 PM</a:t>
+            <a:t>Jan 06, 2023 2:45:09 PM</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1400">
             <a:solidFill>
@@ -4165,15 +4307,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
+      <xdr:colOff>57148</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>80010</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>167639</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4182,10 +4324,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="190499" y="38100"/>
-          <a:ext cx="11649076" cy="3324225"/>
-          <a:chOff x="171449" y="45400"/>
-          <a:chExt cx="11649076" cy="3089361"/>
+          <a:off x="190498" y="76200"/>
+          <a:ext cx="11652887" cy="3329939"/>
+          <a:chOff x="171448" y="80808"/>
+          <a:chExt cx="11652887" cy="3094672"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -4195,10 +4337,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="171449" y="266699"/>
-            <a:ext cx="3800475" cy="2788133"/>
-            <a:chOff x="171449" y="266699"/>
-            <a:chExt cx="3800475" cy="2788133"/>
+            <a:off x="171448" y="488002"/>
+            <a:ext cx="3566160" cy="2646498"/>
+            <a:chOff x="171448" y="488002"/>
+            <a:chExt cx="3566160" cy="2646498"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
@@ -4208,8 +4350,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="171449" y="616433"/>
-              <a:ext cx="3800475" cy="2438399"/>
+              <a:off x="171448" y="877491"/>
+              <a:ext cx="3566160" cy="2257009"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4234,7 +4376,7 @@
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l"/>
@@ -4249,10 +4391,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="247651" y="266699"/>
-              <a:ext cx="3648074" cy="2752726"/>
-              <a:chOff x="247651" y="266699"/>
-              <a:chExt cx="3648074" cy="2752726"/>
+              <a:off x="209551" y="488002"/>
+              <a:ext cx="3509009" cy="2634366"/>
+              <a:chOff x="209551" y="488002"/>
+              <a:chExt cx="3509009" cy="2634366"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:grpSp>
@@ -4262,10 +4404,10 @@
             </xdr:nvGrpSpPr>
             <xdr:grpSpPr>
               <a:xfrm>
-                <a:off x="247651" y="696672"/>
-                <a:ext cx="1280160" cy="849795"/>
-                <a:chOff x="247651" y="696672"/>
-                <a:chExt cx="1280160" cy="849795"/>
+                <a:off x="209551" y="912898"/>
+                <a:ext cx="1190624" cy="807306"/>
+                <a:chOff x="209551" y="912898"/>
+                <a:chExt cx="1190624" cy="807306"/>
               </a:xfrm>
             </xdr:grpSpPr>
             <xdr:sp macro="" textlink="">
@@ -4275,8 +4417,8 @@
               </xdr:nvSpPr>
               <xdr:spPr>
                 <a:xfrm>
-                  <a:off x="247651" y="696672"/>
-                  <a:ext cx="1280160" cy="849795"/>
+                  <a:off x="209551" y="912898"/>
+                  <a:ext cx="1190624" cy="807306"/>
                 </a:xfrm>
                 <a:prstGeom prst="roundRect">
                   <a:avLst/>
@@ -4302,12 +4444,12 @@
                 </a:fontRef>
               </xdr:style>
               <xdr:txBody>
-                <a:bodyPr rtlCol="0" anchor="ctr"/>
+                <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr algn="ctr"/>
                   <a:r>
-                    <a:rPr lang="en-US" sz="1600" b="1" u="sng">
+                    <a:rPr lang="en-US" sz="1300" b="1" u="none">
                       <a:solidFill>
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
@@ -4318,7 +4460,7 @@
                 <a:p>
                   <a:pPr algn="l"/>
                   <a:r>
-                    <a:rPr lang="en-US" sz="1200">
+                    <a:rPr lang="en-US" sz="1100">
                       <a:solidFill>
                         <a:srgbClr val="51FF21"/>
                       </a:solidFill>
@@ -4329,7 +4471,7 @@
                 <a:p>
                   <a:pPr algn="l"/>
                   <a:r>
-                    <a:rPr lang="en-US" sz="1200">
+                    <a:rPr lang="en-US" sz="1100">
                       <a:solidFill>
                         <a:srgbClr val="FF0000"/>
                       </a:solidFill>
@@ -4340,7 +4482,7 @@
                 <a:p>
                   <a:pPr algn="l"/>
                   <a:r>
-                    <a:rPr lang="en-US" sz="1200">
+                    <a:rPr lang="en-US" sz="1100">
                       <a:solidFill>
                         <a:srgbClr val="FFFF00"/>
                       </a:solidFill>
@@ -4357,8 +4499,8 @@
               </xdr:nvSpPr>
               <xdr:spPr>
                 <a:xfrm>
-                  <a:off x="923925" y="930655"/>
-                  <a:ext cx="561975" cy="247651"/>
+                  <a:off x="923925" y="1116550"/>
+                  <a:ext cx="466725" cy="247651"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
                   <a:avLst/>
@@ -4383,12 +4525,12 @@
                 </a:fontRef>
               </xdr:style>
               <xdr:txBody>
-                <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+                <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr algn="ctr"/>
                   <a:fld id="{41487303-CB05-47E9-B96D-7F5847EFEAA3}" type="TxLink">
-                    <a:rPr lang="en-US" sz="1200" b="0">
+                    <a:rPr lang="en-US" sz="1100" b="0">
                       <a:solidFill>
                         <a:srgbClr val="27F959"/>
                       </a:solidFill>
@@ -4396,7 +4538,7 @@
                     <a:pPr algn="ctr"/>
                     <a:t>1</a:t>
                   </a:fld>
-                  <a:endParaRPr lang="en-US" sz="1200" b="0">
+                  <a:endParaRPr lang="en-US" sz="1100" b="0">
                     <a:solidFill>
                       <a:srgbClr val="27F959"/>
                     </a:solidFill>
@@ -4411,8 +4553,8 @@
               </xdr:nvSpPr>
               <xdr:spPr>
                 <a:xfrm>
-                  <a:off x="933449" y="1093925"/>
-                  <a:ext cx="552451" cy="247651"/>
+                  <a:off x="923925" y="1275833"/>
+                  <a:ext cx="466725" cy="251635"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
                   <a:avLst/>
@@ -4437,20 +4579,20 @@
                 </a:fontRef>
               </xdr:style>
               <xdr:txBody>
-                <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+                <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr algn="ctr"/>
                   <a:fld id="{B77A6D75-C39D-49DE-828E-57821B240FA1}" type="TxLink">
-                    <a:rPr lang="en-US" sz="1200" b="0">
+                    <a:rPr lang="en-US" sz="1100" b="0">
                       <a:solidFill>
                         <a:srgbClr val="FF0000"/>
                       </a:solidFill>
                     </a:rPr>
                     <a:pPr algn="ctr"/>
-                    <a:t>1</a:t>
+                    <a:t>2</a:t>
                   </a:fld>
-                  <a:endParaRPr lang="en-US" sz="1200" b="0">
+                  <a:endParaRPr lang="en-US" sz="1100" b="0">
                     <a:solidFill>
                       <a:srgbClr val="FF0000"/>
                     </a:solidFill>
@@ -4465,8 +4607,8 @@
               </xdr:nvSpPr>
               <xdr:spPr>
                 <a:xfrm>
-                  <a:off x="914400" y="1257199"/>
-                  <a:ext cx="581026" cy="257174"/>
+                  <a:off x="914400" y="1435170"/>
+                  <a:ext cx="485775" cy="239006"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
                   <a:avLst/>
@@ -4491,12 +4633,12 @@
                 </a:fontRef>
               </xdr:style>
               <xdr:txBody>
-                <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+                <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr algn="ctr"/>
                   <a:fld id="{7219BB06-5362-46C7-AE8B-8D4E64C9DED1}" type="TxLink">
-                    <a:rPr lang="en-US" sz="1200" b="0">
+                    <a:rPr lang="en-US" sz="1100" b="0">
                       <a:solidFill>
                         <a:srgbClr val="FFFF00"/>
                       </a:solidFill>
@@ -4504,7 +4646,7 @@
                     <a:pPr algn="ctr"/>
                     <a:t>1</a:t>
                   </a:fld>
-                  <a:endParaRPr lang="en-US" sz="1200" b="0">
+                  <a:endParaRPr lang="en-US" sz="1100" b="0">
                     <a:solidFill>
                       <a:srgbClr val="FFFF00"/>
                     </a:solidFill>
@@ -4521,8 +4663,8 @@
               </xdr:cNvGraphicFramePr>
             </xdr:nvGraphicFramePr>
             <xdr:xfrm>
-              <a:off x="1504950" y="266699"/>
-              <a:ext cx="2390775" cy="2752726"/>
+              <a:off x="1295400" y="488002"/>
+              <a:ext cx="2423160" cy="2634366"/>
             </xdr:xfrm>
             <a:graphic>
               <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4539,10 +4681,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="4067174" y="257848"/>
-            <a:ext cx="3819525" cy="2797246"/>
-            <a:chOff x="4067174" y="257848"/>
-            <a:chExt cx="3819525" cy="2797246"/>
+            <a:off x="3800475" y="80808"/>
+            <a:ext cx="4471035" cy="3059265"/>
+            <a:chOff x="3800475" y="80808"/>
+            <a:chExt cx="4471035" cy="3059265"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
@@ -4552,8 +4694,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4067174" y="620782"/>
-              <a:ext cx="3819525" cy="2434312"/>
+              <a:off x="3800475" y="80809"/>
+              <a:ext cx="4391026" cy="3059264"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4578,7 +4720,7 @@
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l"/>
@@ -4593,7 +4735,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4143375" y="696671"/>
+              <a:off x="3876675" y="156697"/>
               <a:ext cx="1280160" cy="849796"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
@@ -4620,12 +4762,12 @@
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr rtlCol="0" anchor="ctr"/>
+            <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr"/>
               <a:r>
-                <a:rPr lang="en-US" sz="1600" b="1" u="sng">
+                <a:rPr lang="en-US" sz="1600" b="1" u="none">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -4675,8 +4817,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4800600" y="930654"/>
-              <a:ext cx="647700" cy="247651"/>
+              <a:off x="4533900" y="355272"/>
+              <a:ext cx="590550" cy="247651"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4701,19 +4843,19 @@
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr"/>
               <a:fld id="{5E830E56-6EF0-481D-AF4F-B51C1C996EFA}" type="TxLink">
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
                   <a:solidFill>
                     <a:srgbClr val="51FF21"/>
                   </a:solidFill>
                   <a:latin typeface="Calibri"/>
                 </a:rPr>
                 <a:pPr algn="ctr"/>
-                <a:t>1</a:t>
+                <a:t>2</a:t>
               </a:fld>
               <a:endParaRPr lang="en-US" sz="1200" b="0">
                 <a:solidFill>
@@ -4730,8 +4872,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4800599" y="1111630"/>
-              <a:ext cx="657225" cy="247651"/>
+              <a:off x="4514850" y="536247"/>
+              <a:ext cx="619124" cy="247651"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4756,19 +4898,19 @@
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr"/>
               <a:fld id="{BD0EF753-9A18-4975-B169-ECA4EE0CEA9F}" type="TxLink">
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
                   <a:solidFill>
                     <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:latin typeface="Calibri"/>
                 </a:rPr>
                 <a:pPr algn="ctr"/>
-                <a:t>1</a:t>
+                <a:t>2</a:t>
               </a:fld>
               <a:endParaRPr lang="en-US" sz="1200" b="0">
                 <a:solidFill>
@@ -4785,8 +4927,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4800600" y="1292606"/>
-              <a:ext cx="647700" cy="257174"/>
+              <a:off x="4514850" y="708372"/>
+              <a:ext cx="628650" cy="257174"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4811,19 +4953,19 @@
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr"/>
               <a:fld id="{A34595C3-6342-4982-8F51-D73860015449}" type="TxLink">
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
                   <a:solidFill>
                     <a:srgbClr val="FFFF00"/>
                   </a:solidFill>
                   <a:latin typeface="Calibri"/>
                 </a:rPr>
                 <a:pPr algn="ctr"/>
-                <a:t>1</a:t>
+                <a:t>2</a:t>
               </a:fld>
               <a:endParaRPr lang="en-US" sz="1200" b="0">
                 <a:solidFill>
@@ -4841,8 +4983,8 @@
             </xdr:cNvGraphicFramePr>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
-            <a:off x="5429250" y="257848"/>
-            <a:ext cx="2381250" cy="2788806"/>
+            <a:off x="4933950" y="80808"/>
+            <a:ext cx="3337560" cy="3016775"/>
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4858,10 +5000,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="7991475" y="45400"/>
-            <a:ext cx="3829050" cy="3089361"/>
-            <a:chOff x="7991475" y="45400"/>
-            <a:chExt cx="3829050" cy="3089361"/>
+            <a:off x="8258175" y="541114"/>
+            <a:ext cx="3566160" cy="2634366"/>
+            <a:chOff x="8258175" y="541114"/>
+            <a:chExt cx="3566160" cy="2634366"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
@@ -4871,8 +5013,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7991475" y="624613"/>
-              <a:ext cx="3829050" cy="2430480"/>
+              <a:off x="8258175" y="872469"/>
+              <a:ext cx="3566160" cy="2260456"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4897,7 +5039,7 @@
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l"/>
@@ -4912,8 +5054,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8067676" y="696672"/>
-              <a:ext cx="1280160" cy="849796"/>
+              <a:off x="8296276" y="900268"/>
+              <a:ext cx="1188720" cy="807306"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
               <a:avLst/>
@@ -4939,12 +5081,12 @@
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr rtlCol="0" anchor="ctr"/>
+            <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr"/>
               <a:r>
-                <a:rPr lang="en-US" sz="1600" b="1" u="sng">
+                <a:rPr lang="en-US" sz="1300" b="1" u="none">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -4955,7 +5097,7 @@
             <a:p>
               <a:pPr algn="l"/>
               <a:r>
-                <a:rPr lang="en-US" sz="1200">
+                <a:rPr lang="en-US" sz="1100">
                   <a:solidFill>
                     <a:srgbClr val="51FF21"/>
                   </a:solidFill>
@@ -4966,7 +5108,7 @@
             <a:p>
               <a:pPr algn="l"/>
               <a:r>
-                <a:rPr lang="en-US" sz="1200">
+                <a:rPr lang="en-US" sz="1100">
                   <a:solidFill>
                     <a:srgbClr val="FF0000"/>
                   </a:solidFill>
@@ -4977,7 +5119,7 @@
             <a:p>
               <a:pPr algn="l"/>
               <a:r>
-                <a:rPr lang="en-US" sz="1200">
+                <a:rPr lang="en-US" sz="1100">
                   <a:solidFill>
                     <a:srgbClr val="FFFF00"/>
                   </a:solidFill>
@@ -4994,8 +5136,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8724900" y="930655"/>
-              <a:ext cx="638175" cy="247651"/>
+              <a:off x="8915400" y="1098843"/>
+              <a:ext cx="552450" cy="247651"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5020,7 +5162,7 @@
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr"/>
@@ -5032,7 +5174,7 @@
                   <a:latin typeface="Calibri"/>
                 </a:rPr>
                 <a:pPr algn="ctr"/>
-                <a:t>1</a:t>
+                <a:t>6</a:t>
               </a:fld>
               <a:endParaRPr lang="en-US" sz="1200" b="0">
                 <a:solidFill>
@@ -5049,8 +5191,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8705850" y="1120481"/>
-              <a:ext cx="676275" cy="247651"/>
+              <a:off x="8886825" y="1262113"/>
+              <a:ext cx="590550" cy="247651"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5075,7 +5217,7 @@
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr"/>
@@ -5104,8 +5246,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8724899" y="1292606"/>
-              <a:ext cx="657225" cy="257174"/>
+              <a:off x="8896350" y="1425387"/>
+              <a:ext cx="571499" cy="257174"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5130,7 +5272,7 @@
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr"/>
@@ -5160,8 +5302,8 @@
             </xdr:cNvGraphicFramePr>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
-            <a:off x="9334500" y="45400"/>
-            <a:ext cx="2409825" cy="3089361"/>
+            <a:off x="9382124" y="541114"/>
+            <a:ext cx="2423160" cy="2634366"/>
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5276,12 +5418,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.28095</cdr:x>
-      <cdr:y>0.38583</cdr:y>
+      <cdr:x>0.33594</cdr:x>
+      <cdr:y>0.42003</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.75714</cdr:x>
-      <cdr:y>0.76772</cdr:y>
+      <cdr:x>0.69922</cdr:x>
+      <cdr:y>0.73589</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="'DB Data'!$D$5">
       <cdr:nvSpPr>
@@ -5290,8 +5432,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="602111" y="1142827"/>
-          <a:ext cx="1020535" cy="1131157"/>
+          <a:off x="819150" y="1190625"/>
+          <a:ext cx="885825" cy="895350"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -5425,7 +5567,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>3</a:t>
+            <a:t>4</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -5443,12 +5585,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.28095</cdr:x>
-      <cdr:y>0.38583</cdr:y>
+      <cdr:x>0.32249</cdr:x>
+      <cdr:y>0.33157</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.75714</cdr:x>
-      <cdr:y>0.76772</cdr:y>
+      <cdr:x>0.68208</cdr:x>
+      <cdr:y>0.70423</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="'DB Data'!$F$5">
       <cdr:nvSpPr>
@@ -5457,8 +5599,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="561975" y="933452"/>
-          <a:ext cx="952500" cy="923924"/>
+          <a:off x="1076325" y="1076324"/>
+          <a:ext cx="1200150" cy="1209675"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -5585,16 +5727,16 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
           <a:fld id="{EC401DB1-A780-48C9-8D04-3C77257FD87B}" type="TxLink">
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+            <a:rPr lang="en-US" sz="3000" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>3</a:t>
+            <a:t>6</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="1800" b="1">
+          <a:endParaRPr lang="en-US" sz="3000" b="1">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -5610,12 +5752,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.28095</cdr:x>
-      <cdr:y>0.38583</cdr:y>
+      <cdr:x>0.32411</cdr:x>
+      <cdr:y>0.40323</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.75714</cdr:x>
-      <cdr:y>0.76772</cdr:y>
+      <cdr:x>0.6917</cdr:x>
+      <cdr:y>0.72581</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="'DB Data'!$H$5">
       <cdr:nvSpPr>
@@ -5624,8 +5766,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="572674" y="1058409"/>
-          <a:ext cx="970642" cy="1047601"/>
+          <a:off x="781050" y="1143000"/>
+          <a:ext cx="885825" cy="914400"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -5759,7 +5901,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>3</a:t>
+            <a:t>8</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -5981,7 +6123,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>2</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:solidFill>
@@ -6051,7 +6193,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>2</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:solidFill>
@@ -6121,7 +6263,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>2</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:solidFill>
@@ -6289,7 +6431,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>3</a:t>
+            <a:t>6</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -6614,7 +6756,7 @@
               </a:solidFill>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>2</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:solidFill>
@@ -6851,7 +6993,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>3</a:t>
+            <a:t>4</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -7155,7 +7297,7 @@
   <dimension ref="B19:G60"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7174,23 +7316,23 @@
     </row>
     <row r="37" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="13"/>
+        <v>55</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="34"/>
+      <c r="E38" s="35"/>
       <c r="F38" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7203,29 +7345,29 @@
     </row>
     <row r="59" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C60" s="13"/>
+      <c r="B60" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="35"/>
       <c r="D60" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E60" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F60" s="13"/>
+      <c r="E60" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60" s="35"/>
       <c r="G60" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="C38:E38"/>
     <mergeCell ref="B60:C60"/>
-    <mergeCell ref="C38:E38"/>
     <mergeCell ref="E60:F60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7240,7 +7382,8 @@
   <dimension ref="B20:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <pane ySplit="20" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7257,57 +7400,60 @@
   <sheetData>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>21</v>
-      </c>
       <c r="G20" s="11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="B21" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="29">
+        <v>6</v>
+      </c>
+      <c r="H21" s="29">
+        <v>3</v>
+      </c>
+      <c r="I21" s="29">
+        <v>2</v>
+      </c>
+      <c r="J21" s="29">
         <v>1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
-      <c r="J21">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -7323,7 +7469,8 @@
   <dimension ref="B20:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <pane ySplit="20" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7339,53 +7486,53 @@
   <sheetData>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="B21" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="12">
         <v>6</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="13">
         <v>3</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="14">
         <v>2</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="16"/>
+        <v>55</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="37"/>
       <c r="H24" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -7405,7 +7552,8 @@
   <dimension ref="B18:L21"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <pane ySplit="20" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7423,69 +7571,72 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>20</v>
-      </c>
       <c r="D20" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E20" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="B21" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="19">
+        <v>6</v>
+      </c>
+      <c r="F21" s="20">
+        <v>3</v>
+      </c>
+      <c r="G21" s="21">
+        <v>2</v>
+      </c>
+      <c r="H21" s="22">
         <v>1</v>
       </c>
-      <c r="C21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21">
+      <c r="I21" s="23">
         <v>6</v>
       </c>
-      <c r="F21">
+      <c r="J21" s="24">
         <v>3</v>
       </c>
-      <c r="G21">
+      <c r="K21" s="25">
+        <v>2</v>
+      </c>
+      <c r="L21" s="26">
         <v>1</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21">
-        <v>6</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -7512,104 +7663,104 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
     <row r="29" spans="2:4" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
@@ -7622,10 +7773,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7655,56 +7806,56 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -7712,25 +7863,25 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -7738,132 +7889,132 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5">
         <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="S19" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="10" t="s">
+      <c r="T19" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="P19" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q19" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="R19" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="S19" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="T19" s="10" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I20" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="Q20" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T20">
         <v>1</v>
@@ -7878,11 +8029,8 @@
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/templates/report template - All DB.xlsx
+++ b/src/main/resources/templates/report template - All DB.xlsx
@@ -16,18 +16,17 @@
     <sheet name="Scenarios" sheetId="3" r:id="rId2"/>
     <sheet name="Tags" sheetId="4" r:id="rId3"/>
     <sheet name="Features" sheetId="2" r:id="rId4"/>
-    <sheet name="Execution" sheetId="12" r:id="rId5"/>
-    <sheet name="DB Data" sheetId="5" r:id="rId6"/>
+    <sheet name="DB Data" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="Chart1">Scenarios!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
   <si>
     <t>Duration</t>
   </si>
@@ -126,18 +125,6 @@
   </si>
   <si>
     <t>STEP SKIP</t>
-  </si>
-  <si>
-    <t>Level 1</t>
-  </si>
-  <si>
-    <t>Level 11</t>
-  </si>
-  <si>
-    <t>Level 111</t>
-  </si>
-  <si>
-    <t>Level 1111</t>
   </si>
   <si>
     <t>TAG</t>
@@ -2213,7 +2200,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2263,7 +2249,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2337,7 +2322,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -2411,7 +2395,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -2508,7 +2491,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:ln>
@@ -2588,7 +2570,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2638,7 +2619,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2712,7 +2692,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2786,7 +2765,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2878,7 +2856,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -7316,12 +7293,12 @@
     </row>
     <row r="37" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C38" s="33" t="s">
         <v>16</v>
@@ -7345,7 +7322,7 @@
     </row>
     <row r="59" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7429,19 +7406,19 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="27" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G21" s="29">
         <v>6</v>
@@ -7486,7 +7463,7 @@
   <sheetData>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>26</v>
@@ -7503,7 +7480,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="32" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C21" s="12">
         <v>6</v>
@@ -7520,7 +7497,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C24" s="36" t="s">
         <v>16</v>
@@ -7606,13 +7583,13 @@
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E21" s="19">
         <v>6</v>
@@ -7648,135 +7625,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
-  <sheetViews>
-    <sheetView showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="3" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:4" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25"/>
-    <row r="33" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7840,7 +7693,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -7866,7 +7719,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -7892,7 +7745,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -7918,67 +7771,67 @@
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q19" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="10" t="s">
+      <c r="R19" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="S19" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="P19" s="10" t="s">
+      <c r="T19" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="Q19" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="R19" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="S19" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="T19" s="10" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -7990,10 +7843,10 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J20">
         <v>3</v>
@@ -8005,10 +7858,10 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="R20">
         <v>3</v>

--- a/src/main/resources/templates/report template - All DB.xlsx
+++ b/src/main/resources/templates/report template - All DB.xlsx
@@ -4124,18 +4124,18 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:fld id="{ED1868E5-AE56-4ACA-8944-337939004EF9}" type="TxLink">
-            <a:rPr lang="en-US" sz="2600" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
+            <a:rPr lang="en-US" sz="2400" b="1" i="1" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
             <a:t>0.253 s</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="2600" b="1">
+          <a:endParaRPr lang="en-US" sz="2400" b="1" i="1">
             <a:solidFill>
-              <a:schemeClr val="bg1"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -4194,17 +4194,17 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:fld id="{07321330-A736-45CE-AAA5-68120F007E07}" type="TxLink">
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
+            <a:rPr lang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:pPr algn="ctr"/>
             <a:t>Jan 06, 2023 2:45:09 PM</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="1400">
+          <a:endParaRPr lang="en-US" sz="1400" i="1">
             <a:solidFill>
-              <a:schemeClr val="bg1"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -4263,17 +4263,17 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:fld id="{C66D813D-5F81-41CE-8DAE-BBDD038F8F76}" type="TxLink">
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
+            <a:rPr lang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:rPr>
             <a:pPr algn="ctr"/>
             <a:t>Jan 06, 2023 2:45:09 PM</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="1400">
+          <a:endParaRPr lang="en-US" sz="1400" i="1">
             <a:solidFill>
-              <a:schemeClr val="bg1"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -5537,18 +5537,18 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
           <a:fld id="{5501BE5E-9668-4CE4-A888-5F85DFC126EE}" type="TxLink">
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
+            <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
             <a:t>4</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="1800" b="1">
+          <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
-              <a:schemeClr val="bg1"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -5576,8 +5576,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1076325" y="1076324"/>
-          <a:ext cx="1200150" cy="1209675"/>
+          <a:off x="1076330" y="1076316"/>
+          <a:ext cx="1200153" cy="1209699"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -5704,18 +5704,18 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
           <a:fld id="{EC401DB1-A780-48C9-8D04-3C77257FD87B}" type="TxLink">
-            <a:rPr lang="en-US" sz="3000" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
             <a:t>6</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="3000" b="1">
+          <a:endParaRPr lang="en-US" sz="3600" b="1">
             <a:solidFill>
-              <a:schemeClr val="bg1"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -5871,18 +5871,18 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
           <a:fld id="{31691118-B83C-4A2D-970E-D212AA344C2F}" type="TxLink">
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
+            <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
             <a:t>8</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="1800" b="1">
+          <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
-              <a:schemeClr val="bg1"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -7274,7 +7274,7 @@
   <dimension ref="B19:G60"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/templates/report template - All DB.xlsx
+++ b/src/main/resources/templates/report template - All DB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel Extent\Big Scenario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel Extent\Exceptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,8 @@
     <sheet name="Scenarios" sheetId="3" r:id="rId2"/>
     <sheet name="Tags" sheetId="4" r:id="rId3"/>
     <sheet name="Features" sheetId="2" r:id="rId4"/>
-    <sheet name="DB Data" sheetId="5" r:id="rId5"/>
+    <sheet name="Exceptions" sheetId="12" r:id="rId5"/>
+    <sheet name="DB Data" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="Chart1">Scenarios!#REF!</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="63">
   <si>
     <t>Duration</t>
   </si>
@@ -209,6 +210,12 @@
   </si>
   <si>
     <t>tag</t>
+  </si>
+  <si>
+    <t>STACKTRACE</t>
+  </si>
+  <si>
+    <t>STEP / HOOK TEXT</t>
   </si>
 </sst>
 </file>
@@ -765,6 +772,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -814,6 +822,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -887,6 +896,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -960,6 +970,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1052,6 +1063,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1239,7 +1251,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2928,6 +2942,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2977,6 +2992,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3050,6 +3066,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3123,6 +3140,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3214,6 +3232,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3399,7 +3418,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3514,6 +3535,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3563,6 +3585,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3636,6 +3659,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3709,6 +3733,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3800,6 +3825,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -7530,7 +7556,7 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="20" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7624,6 +7650,41 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E2"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="45.7109375" customWidth="1"/>
+    <col min="5" max="5" width="75.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:T33"/>

--- a/src/main/resources/templates/report template - All DB.xlsx
+++ b/src/main/resources/templates/report template - All DB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel Extent\Exceptions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel Extent\UI Changes - Jan 23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="66">
   <si>
     <t>Duration</t>
   </si>
@@ -216,6 +216,15 @@
   </si>
   <si>
     <t>STEP / HOOK TEXT</t>
+  </si>
+  <si>
+    <t>Features Pass %</t>
+  </si>
+  <si>
+    <t>Scenarios Pass %</t>
+  </si>
+  <si>
+    <t>Steps Pass %</t>
   </si>
 </sst>
 </file>
@@ -407,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -489,6 +498,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,1270 +524,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="3.2823665966057035E-2"/>
-          <c:y val="0.18503976548058501"/>
-          <c:w val="0.96715927750410535"/>
-          <c:h val="0.78524645049290098"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:doughnutChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="6350">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-            <a:scene3d>
-              <a:camera prst="orthographicFront"/>
-              <a:lightRig rig="threePt" dir="t"/>
-            </a:scene3d>
-            <a:sp3d prstMaterial="matte"/>
-          </c:spPr>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="51FF21"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-C5E1-437A-A52D-DCB97CB8ED06}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-C5E1-437A-A52D-DCB97CB8ED06}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-C5E1-437A-A52D-DCB97CB8ED06}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DB Data'!$C$2:$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Features Passed</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Features Failed</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Features Skipped</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DB Data'!$D$2:$D$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-C5E1-437A-A52D-DCB97CB8ED06}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-        <c:holeSize val="40"/>
-      </c:doughnutChart>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t>Features</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Features!$F$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SCENARIO PASS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="51FF21"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Features!$B$21:$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Feature</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Features!$F$21:$F$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5768-4C55-9686-6251C2C8BD33}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Features!$H$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SCENARIO SKIP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFFF00"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Features!$B$21:$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Feature</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Features!$H$21:$H$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5768-4C55-9686-6251C2C8BD33}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Features!$G$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SCENARIO FAIL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Features!$B$21:$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Feature</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Features!$G$21:$G$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5768-4C55-9686-6251C2C8BD33}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="46512000"/>
-        <c:axId val="46513536"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="46512000"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="46513536"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="46513536"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Scenarios</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="46512000"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
-        <c:minorUnit val="0.1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="tx2"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="tx2"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.3310417416097107E-2"/>
-          <c:y val="0.17399131020088515"/>
-          <c:w val="0.93298799578986624"/>
-          <c:h val="0.80271606659122552"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:doughnutChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="6350">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-            <a:scene3d>
-              <a:camera prst="orthographicFront"/>
-              <a:lightRig rig="threePt" dir="t"/>
-            </a:scene3d>
-            <a:sp3d prstMaterial="matte"/>
-          </c:spPr>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="51FF21"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-D2BC-4951-98B3-E41274AF2CA1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-D2BC-4951-98B3-E41274AF2CA1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-D2BC-4951-98B3-E41274AF2CA1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DB Data'!$C$2:$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Features Passed</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Features Failed</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Features Skipped</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DB Data'!$D$2:$D$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-D2BC-4951-98B3-E41274AF2CA1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-        <c:holeSize val="40"/>
-      </c:doughnutChart>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.4867807619937916E-2"/>
-          <c:y val="4.6638140302884677E-2"/>
-          <c:w val="0.90814427306175771"/>
-          <c:h val="0.93372580188039878"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:doughnutChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="6350">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-            <a:scene3d>
-              <a:camera prst="orthographicFront"/>
-              <a:lightRig rig="threePt" dir="t"/>
-            </a:scene3d>
-            <a:sp3d prstMaterial="matte"/>
-          </c:spPr>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="51FF21"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-86A0-4454-A31A-15C1830346B8}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-86A0-4454-A31A-15C1830346B8}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-86A0-4454-A31A-15C1830346B8}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DB Data'!$E$2:$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Scenarios Passed</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Scenarios Failed</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Scenarios Skipped</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DB Data'!$F$2:$F$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-86A0-4454-A31A-15C1830346B8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-        <c:holeSize val="40"/>
-      </c:doughnutChart>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.1858952413557008E-2"/>
-          <c:y val="0.17474711947447277"/>
-          <c:w val="0.91710518398638907"/>
-          <c:h val="0.77966294826254767"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:doughnutChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="6350">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-            <a:scene3d>
-              <a:camera prst="orthographicFront"/>
-              <a:lightRig rig="threePt" dir="t"/>
-            </a:scene3d>
-            <a:sp3d prstMaterial="matte"/>
-          </c:spPr>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="51FF21"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-2833-4D5B-98DA-2F8086DE2D67}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-2833-4D5B-98DA-2F8086DE2D67}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-2833-4D5B-98DA-2F8086DE2D67}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DB Data'!$G$2:$G$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Steps Passed</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Steps Failed</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Steps Skipped</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DB Data'!$H$2:$H$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-2833-4D5B-98DA-2F8086DE2D67}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-        <c:holeSize val="40"/>
-      </c:doughnutChart>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2161,7 +907,592 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Features</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Features!$F$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SCENARIO PASS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Features!$B$21:$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Feature</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Features!$F$21:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5768-4C55-9686-6251C2C8BD33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Features!$H$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SCENARIO SKIP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Features!$B$21:$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Feature</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Features!$H$21:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5768-4C55-9686-6251C2C8BD33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Features!$G$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SCENARIO FAIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Features!$B$21:$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Feature</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Features!$G$21:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5768-4C55-9686-6251C2C8BD33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="46512000"/>
+        <c:axId val="46513536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46512000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46513536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46513536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46512000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="tx2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="tx2"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.3310417416097107E-2"/>
+          <c:y val="0.17399131020088515"/>
+          <c:w val="0.93298799578986624"/>
+          <c:h val="0.80271606659122552"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="matte"/>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="51FF21"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D2BC-4951-98B3-E41274AF2CA1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D2BC-4951-98B3-E41274AF2CA1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-D2BC-4951-98B3-E41274AF2CA1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$C$2:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Features Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Features Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Features Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D2BC-4951-98B3-E41274AF2CA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="40"/>
+      </c:doughnutChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2214,6 +1545,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2263,6 +1595,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2336,6 +1669,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -2409,6 +1743,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -2505,6 +1840,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:ln>
@@ -2550,7 +1886,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2584,6 +1920,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2633,6 +1970,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2706,6 +2044,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2779,6 +2118,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2870,6 +2210,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2908,6 +2249,678 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.2823665966057035E-2"/>
+          <c:y val="0.18503976548058501"/>
+          <c:w val="0.96715927750410535"/>
+          <c:h val="0.78524645049290098"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="matte"/>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="51FF21"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C5E1-437A-A52D-DCB97CB8ED06}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C5E1-437A-A52D-DCB97CB8ED06}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-C5E1-437A-A52D-DCB97CB8ED06}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$C$2:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Features Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Features Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Features Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C5E1-437A-A52D-DCB97CB8ED06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="40"/>
+      </c:doughnutChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.4867807619937916E-2"/>
+          <c:y val="4.6638140302884677E-2"/>
+          <c:w val="0.90814427306175771"/>
+          <c:h val="0.93372580188039878"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="matte"/>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="51FF21"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-86A0-4454-A31A-15C1830346B8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-86A0-4454-A31A-15C1830346B8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-86A0-4454-A31A-15C1830346B8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$E$2:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Scenarios Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scenarios Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scenarios Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$F$2:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-86A0-4454-A31A-15C1830346B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="40"/>
+      </c:doughnutChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.1858952413557008E-2"/>
+          <c:y val="0.17474711947447277"/>
+          <c:w val="0.91710518398638907"/>
+          <c:h val="0.77966294826254767"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="matte"/>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="51FF21"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2833-4D5B-98DA-2F8086DE2D67}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2833-4D5B-98DA-2F8086DE2D67}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-2833-4D5B-98DA-2F8086DE2D67}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$G$2:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Steps Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Steps Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Steps Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$H$2:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2833-4D5B-98DA-2F8086DE2D67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="40"/>
+      </c:doughnutChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -2942,7 +2955,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2992,7 +3004,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3066,7 +3077,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3140,7 +3150,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3232,7 +3241,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3418,9 +3426,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3535,7 +3541,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3585,7 +3590,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3659,7 +3663,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3733,7 +3736,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3825,7 +3827,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3871,1456 +3872,6 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1575435</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="190500" y="76200"/>
-          <a:ext cx="3566160" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Duration</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2628898</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>89533</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8286748" y="76200"/>
-          <a:ext cx="3566160" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Start Time</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2400">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2628899</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>89534</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8286749" y="495300"/>
-          <a:ext cx="3566160" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>End Time</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2400">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>904876</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1543051</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink=" 'DB Data'!$B$6">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1038226" y="114300"/>
-          <a:ext cx="2686050" cy="695325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:fld id="{ED1868E5-AE56-4ACA-8944-337939004EF9}" type="TxLink">
-            <a:rPr lang="en-US" sz="2400" b="1" i="1" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:pPr algn="ctr"/>
-            <a:t>0.253 s</a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-US" sz="2400" b="1" i="1">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3657601</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink=" 'DB Data'!$B$4">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9315451" y="85725"/>
-          <a:ext cx="2514600" cy="352426"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:fld id="{07321330-A736-45CE-AAA5-68120F007E07}" type="TxLink">
-            <a:rPr lang="en-US" sz="1400" i="1">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:pPr algn="ctr"/>
-            <a:t>Jan 06, 2023 2:45:09 PM</a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-US" sz="1400" i="1">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3638550</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink=" 'DB Data'!$B$5">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 7"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9296400" y="504824"/>
-          <a:ext cx="2533650" cy="342901"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:fld id="{C66D813D-5F81-41CE-8DAE-BBDD038F8F76}" type="TxLink">
-            <a:rPr lang="en-US" sz="1400" i="1">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:pPr algn="ctr"/>
-            <a:t>Jan 06, 2023 2:45:09 PM</a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-US" sz="1400" i="1">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>57148</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>80010</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>167639</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="10" name="Group 9"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="190498" y="76200"/>
-          <a:ext cx="11652887" cy="3329939"/>
-          <a:chOff x="171448" y="80808"/>
-          <a:chExt cx="11652887" cy="3094672"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="16" name="Group 15"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="171448" y="488002"/>
-            <a:ext cx="3566160" cy="2646498"/>
-            <a:chOff x="171448" y="488002"/>
-            <a:chExt cx="3566160" cy="2646498"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="31" name="Rectangle 30"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="171448" y="877491"/>
-              <a:ext cx="3566160" cy="2257009"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="tx2"/>
-            </a:solidFill>
-            <a:ln w="6350"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="32" name="Group 31"/>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="209551" y="488002"/>
-              <a:ext cx="3509009" cy="2634366"/>
-              <a:chOff x="209551" y="488002"/>
-              <a:chExt cx="3509009" cy="2634366"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:grpSp>
-            <xdr:nvGrpSpPr>
-              <xdr:cNvPr id="33" name="Group 32"/>
-              <xdr:cNvGrpSpPr/>
-            </xdr:nvGrpSpPr>
-            <xdr:grpSpPr>
-              <a:xfrm>
-                <a:off x="209551" y="912898"/>
-                <a:ext cx="1190624" cy="807306"/>
-                <a:chOff x="209551" y="912898"/>
-                <a:chExt cx="1190624" cy="807306"/>
-              </a:xfrm>
-            </xdr:grpSpPr>
-            <xdr:sp macro="" textlink="">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="35" name="Rounded Rectangle 34"/>
-                <xdr:cNvSpPr/>
-              </xdr:nvSpPr>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="209551" y="912898"/>
-                  <a:ext cx="1190624" cy="807306"/>
-                </a:xfrm>
-                <a:prstGeom prst="roundRect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </xdr:spPr>
-              <xdr:style>
-                <a:lnRef idx="0">
-                  <a:schemeClr val="accent1"/>
-                </a:lnRef>
-                <a:fillRef idx="3">
-                  <a:schemeClr val="accent1"/>
-                </a:fillRef>
-                <a:effectRef idx="3">
-                  <a:schemeClr val="accent1"/>
-                </a:effectRef>
-                <a:fontRef idx="minor">
-                  <a:schemeClr val="lt1"/>
-                </a:fontRef>
-              </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr algn="ctr"/>
-                  <a:r>
-                    <a:rPr lang="en-US" sz="1300" b="1" u="none">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                    </a:rPr>
-                    <a:t>FEATURES</a:t>
-                  </a:r>
-                </a:p>
-                <a:p>
-                  <a:pPr algn="l"/>
-                  <a:r>
-                    <a:rPr lang="en-US" sz="1100">
-                      <a:solidFill>
-                        <a:srgbClr val="51FF21"/>
-                      </a:solidFill>
-                    </a:rPr>
-                    <a:t>PASSED</a:t>
-                  </a:r>
-                </a:p>
-                <a:p>
-                  <a:pPr algn="l"/>
-                  <a:r>
-                    <a:rPr lang="en-US" sz="1100">
-                      <a:solidFill>
-                        <a:srgbClr val="FF0000"/>
-                      </a:solidFill>
-                    </a:rPr>
-                    <a:t>FAILED</a:t>
-                  </a:r>
-                </a:p>
-                <a:p>
-                  <a:pPr algn="l"/>
-                  <a:r>
-                    <a:rPr lang="en-US" sz="1100">
-                      <a:solidFill>
-                        <a:srgbClr val="FFFF00"/>
-                      </a:solidFill>
-                    </a:rPr>
-                    <a:t>SKIPPED</a:t>
-                  </a:r>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
-            <xdr:sp macro="" textlink="'DB Data'!$D$2">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="36" name="TextBox 35"/>
-                <xdr:cNvSpPr txBox="1"/>
-              </xdr:nvSpPr>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="923925" y="1116550"/>
-                  <a:ext cx="466725" cy="247651"/>
-                </a:xfrm>
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:noFill/>
-                <a:ln w="9525" cmpd="sng">
-                  <a:noFill/>
-                </a:ln>
-              </xdr:spPr>
-              <xdr:style>
-                <a:lnRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:lnRef>
-                <a:fillRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:fillRef>
-                <a:effectRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:effectRef>
-                <a:fontRef idx="minor">
-                  <a:schemeClr val="dk1"/>
-                </a:fontRef>
-              </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr algn="ctr"/>
-                  <a:fld id="{41487303-CB05-47E9-B96D-7F5847EFEAA3}" type="TxLink">
-                    <a:rPr lang="en-US" sz="1100" b="0">
-                      <a:solidFill>
-                        <a:srgbClr val="27F959"/>
-                      </a:solidFill>
-                    </a:rPr>
-                    <a:pPr algn="ctr"/>
-                    <a:t>1</a:t>
-                  </a:fld>
-                  <a:endParaRPr lang="en-US" sz="1100" b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="27F959"/>
-                    </a:solidFill>
-                  </a:endParaRPr>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
-            <xdr:sp macro="" textlink="'DB Data'!$D$3">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="37" name="TextBox 36"/>
-                <xdr:cNvSpPr txBox="1"/>
-              </xdr:nvSpPr>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="923925" y="1275833"/>
-                  <a:ext cx="466725" cy="251635"/>
-                </a:xfrm>
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:noFill/>
-                <a:ln w="9525" cmpd="sng">
-                  <a:noFill/>
-                </a:ln>
-              </xdr:spPr>
-              <xdr:style>
-                <a:lnRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:lnRef>
-                <a:fillRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:fillRef>
-                <a:effectRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:effectRef>
-                <a:fontRef idx="minor">
-                  <a:schemeClr val="dk1"/>
-                </a:fontRef>
-              </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr algn="ctr"/>
-                  <a:fld id="{B77A6D75-C39D-49DE-828E-57821B240FA1}" type="TxLink">
-                    <a:rPr lang="en-US" sz="1100" b="0">
-                      <a:solidFill>
-                        <a:srgbClr val="FF0000"/>
-                      </a:solidFill>
-                    </a:rPr>
-                    <a:pPr algn="ctr"/>
-                    <a:t>2</a:t>
-                  </a:fld>
-                  <a:endParaRPr lang="en-US" sz="1100" b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="FF0000"/>
-                    </a:solidFill>
-                  </a:endParaRPr>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
-            <xdr:sp macro="" textlink="'DB Data'!$D$4">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="38" name="TextBox 37"/>
-                <xdr:cNvSpPr txBox="1"/>
-              </xdr:nvSpPr>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="914400" y="1435170"/>
-                  <a:ext cx="485775" cy="239006"/>
-                </a:xfrm>
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:noFill/>
-                <a:ln w="9525" cmpd="sng">
-                  <a:noFill/>
-                </a:ln>
-              </xdr:spPr>
-              <xdr:style>
-                <a:lnRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:lnRef>
-                <a:fillRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:fillRef>
-                <a:effectRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:effectRef>
-                <a:fontRef idx="minor">
-                  <a:schemeClr val="dk1"/>
-                </a:fontRef>
-              </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr algn="ctr"/>
-                  <a:fld id="{7219BB06-5362-46C7-AE8B-8D4E64C9DED1}" type="TxLink">
-                    <a:rPr lang="en-US" sz="1100" b="0">
-                      <a:solidFill>
-                        <a:srgbClr val="FFFF00"/>
-                      </a:solidFill>
-                    </a:rPr>
-                    <a:pPr algn="ctr"/>
-                    <a:t>1</a:t>
-                  </a:fld>
-                  <a:endParaRPr lang="en-US" sz="1100" b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="FFFF00"/>
-                    </a:solidFill>
-                  </a:endParaRPr>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
-          </xdr:grpSp>
-          <xdr:graphicFrame macro="">
-            <xdr:nvGraphicFramePr>
-              <xdr:cNvPr id="34" name="FeatureDough"/>
-              <xdr:cNvGraphicFramePr>
-                <a:graphicFrameLocks/>
-              </xdr:cNvGraphicFramePr>
-            </xdr:nvGraphicFramePr>
-            <xdr:xfrm>
-              <a:off x="1295400" y="488002"/>
-              <a:ext cx="2423160" cy="2634366"/>
-            </xdr:xfrm>
-            <a:graphic>
-              <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-                <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-              </a:graphicData>
-            </a:graphic>
-          </xdr:graphicFrame>
-        </xdr:grpSp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="17" name="Group 16"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="3800475" y="80808"/>
-            <a:ext cx="4471035" cy="3059265"/>
-            <a:chOff x="3800475" y="80808"/>
-            <a:chExt cx="4471035" cy="3059265"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="25" name="Rectangle 24"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3800475" y="80809"/>
-              <a:ext cx="4391026" cy="3059264"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="tx2"/>
-            </a:solidFill>
-            <a:ln w="6350"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="26" name="Rounded Rectangle 25"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3876675" y="156697"/>
-              <a:ext cx="1280160" cy="849796"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="3">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="3">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1600" b="1" u="none">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>SCENARIOS</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200">
-                  <a:solidFill>
-                    <a:srgbClr val="51FF21"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>PASSED</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>FAILED</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFF00"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>SKIPPED</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="'DB Data'!$F$2">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="27" name="TextBox 26"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4533900" y="355272"/>
-              <a:ext cx="590550" cy="247651"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:fld id="{5E830E56-6EF0-481D-AF4F-B51C1C996EFA}" type="TxLink">
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:srgbClr val="51FF21"/>
-                  </a:solidFill>
-                  <a:latin typeface="Calibri"/>
-                </a:rPr>
-                <a:pPr algn="ctr"/>
-                <a:t>2</a:t>
-              </a:fld>
-              <a:endParaRPr lang="en-US" sz="1200" b="0">
-                <a:solidFill>
-                  <a:srgbClr val="51FF21"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="'DB Data'!$F$3">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="28" name="TextBox 27"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4514850" y="536247"/>
-              <a:ext cx="619124" cy="247651"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:fld id="{BD0EF753-9A18-4975-B169-ECA4EE0CEA9F}" type="TxLink">
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Calibri"/>
-                </a:rPr>
-                <a:pPr algn="ctr"/>
-                <a:t>2</a:t>
-              </a:fld>
-              <a:endParaRPr lang="en-US" sz="1200" b="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="'DB Data'!$F$4">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="29" name="TextBox 28"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4514850" y="708372"/>
-              <a:ext cx="628650" cy="257174"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:fld id="{A34595C3-6342-4982-8F51-D73860015449}" type="TxLink">
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFF00"/>
-                  </a:solidFill>
-                  <a:latin typeface="Calibri"/>
-                </a:rPr>
-                <a:pPr algn="ctr"/>
-                <a:t>2</a:t>
-              </a:fld>
-              <a:endParaRPr lang="en-US" sz="1200" b="0">
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="30" name="FeatureDough"/>
-            <xdr:cNvGraphicFramePr>
-              <a:graphicFrameLocks/>
-            </xdr:cNvGraphicFramePr>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="4933950" y="80808"/>
-            <a:ext cx="3337560" cy="3016775"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="18" name="Group 17"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="8258175" y="541114"/>
-            <a:ext cx="3566160" cy="2634366"/>
-            <a:chOff x="8258175" y="541114"/>
-            <a:chExt cx="3566160" cy="2634366"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="19" name="Rectangle 18"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8258175" y="872469"/>
-              <a:ext cx="3566160" cy="2260456"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="tx2"/>
-            </a:solidFill>
-            <a:ln w="6350"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="20" name="Rounded Rectangle 19"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8296276" y="900268"/>
-              <a:ext cx="1188720" cy="807306"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="3">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="3">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1300" b="1" u="none">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>STEPS</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:srgbClr val="51FF21"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>PASSED</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>FAILED</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFF00"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>SKIPPED</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="'DB Data'!$H$2">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="21" name="TextBox 20"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8915400" y="1098843"/>
-              <a:ext cx="552450" cy="247651"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:fld id="{ECACBD74-B5B9-479E-8C2E-C9684999A572}" type="TxLink">
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:srgbClr val="51FF21"/>
-                  </a:solidFill>
-                  <a:latin typeface="Calibri"/>
-                </a:rPr>
-                <a:pPr algn="ctr"/>
-                <a:t>6</a:t>
-              </a:fld>
-              <a:endParaRPr lang="en-US" sz="1200" b="0">
-                <a:solidFill>
-                  <a:srgbClr val="51FF21"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="'DB Data'!$H$3">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="22" name="TextBox 21"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8886825" y="1262113"/>
-              <a:ext cx="590550" cy="247651"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:fld id="{E24417FB-CCF3-4060-A9AB-23F9E2CDA81A}" type="TxLink">
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Calibri"/>
-                </a:rPr>
-                <a:pPr algn="ctr"/>
-                <a:t>1</a:t>
-              </a:fld>
-              <a:endParaRPr lang="en-US" sz="1200" b="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="'DB Data'!$H$4">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="23" name="TextBox 22"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8896350" y="1425387"/>
-              <a:ext cx="571499" cy="257174"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:fld id="{04B0E76C-90E2-4732-8606-78D62C393D8A}" type="TxLink">
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFF00"/>
-                  </a:solidFill>
-                  <a:latin typeface="Calibri"/>
-                </a:rPr>
-                <a:pPr algn="ctr"/>
-                <a:t>1</a:t>
-              </a:fld>
-              <a:endParaRPr lang="en-US" sz="1200" b="0">
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="24" name="FeatureDough"/>
-            <xdr:cNvGraphicFramePr>
-              <a:graphicFrameLocks/>
-            </xdr:cNvGraphicFramePr>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="9382124" y="541114"/>
-            <a:ext cx="2423160" cy="2634366"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </xdr:grpSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>47626</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>186487</xdr:rowOff>
@@ -5344,7 +3895,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5376,7 +3927,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5408,10 +3959,1648 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47623</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>80010</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>158114</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="46" name="Group 45"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="180973" y="66675"/>
+          <a:ext cx="11662412" cy="3329939"/>
+          <a:chOff x="180973" y="66675"/>
+          <a:chExt cx="11662412" cy="3329939"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="13" name="Group 12"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="180973" y="66675"/>
+            <a:ext cx="11662412" cy="3329939"/>
+            <a:chOff x="180973" y="76200"/>
+            <a:chExt cx="11662412" cy="3329939"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="9" name="Group 8"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="180973" y="76200"/>
+              <a:ext cx="11662412" cy="3329939"/>
+              <a:chOff x="180973" y="76200"/>
+              <a:chExt cx="11662412" cy="3329939"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="4" name="Rectangle 3"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="8277223" y="76200"/>
+                <a:ext cx="3566160" cy="361950"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0" algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="0" i="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Start Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="5" name="Rectangle 4"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="8277224" y="495300"/>
+                <a:ext cx="3566160" cy="361950"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="0" i="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>End Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="10" name="Group 9"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="180973" y="76200"/>
+                <a:ext cx="11662412" cy="3329939"/>
+                <a:chOff x="161923" y="80808"/>
+                <a:chExt cx="11662412" cy="3094672"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="16" name="Group 15"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="161923" y="488002"/>
+                  <a:ext cx="3566160" cy="2646498"/>
+                  <a:chOff x="161923" y="488002"/>
+                  <a:chExt cx="3566160" cy="2646498"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="31" name="Rectangle 30"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="161923" y="877491"/>
+                    <a:ext cx="3566160" cy="2257009"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:ln w="6350"/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr lang="en-US" sz="1100"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:grpSp>
+                <xdr:nvGrpSpPr>
+                  <xdr:cNvPr id="32" name="Group 31"/>
+                  <xdr:cNvGrpSpPr/>
+                </xdr:nvGrpSpPr>
+                <xdr:grpSpPr>
+                  <a:xfrm>
+                    <a:off x="209551" y="488002"/>
+                    <a:ext cx="3509009" cy="2634366"/>
+                    <a:chOff x="209551" y="488002"/>
+                    <a:chExt cx="3509009" cy="2634366"/>
+                  </a:xfrm>
+                </xdr:grpSpPr>
+                <xdr:grpSp>
+                  <xdr:nvGrpSpPr>
+                    <xdr:cNvPr id="33" name="Group 32"/>
+                    <xdr:cNvGrpSpPr/>
+                  </xdr:nvGrpSpPr>
+                  <xdr:grpSpPr>
+                    <a:xfrm>
+                      <a:off x="209551" y="912898"/>
+                      <a:ext cx="1190624" cy="807306"/>
+                      <a:chOff x="209551" y="912898"/>
+                      <a:chExt cx="1190624" cy="807306"/>
+                    </a:xfrm>
+                  </xdr:grpSpPr>
+                  <xdr:sp macro="" textlink="">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="35" name="Rounded Rectangle 34"/>
+                      <xdr:cNvSpPr/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="209551" y="912898"/>
+                        <a:ext cx="1190624" cy="807306"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="roundRect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:solidFill>
+                        <a:schemeClr val="bg1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="0">
+                        <a:schemeClr val="accent1"/>
+                      </a:lnRef>
+                      <a:fillRef idx="3">
+                        <a:schemeClr val="accent1"/>
+                      </a:fillRef>
+                      <a:effectRef idx="3">
+                        <a:schemeClr val="accent1"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="lt1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="ctr"/>
+                        <a:r>
+                          <a:rPr lang="en-US" sz="1300" b="1" u="none">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>FEATURES</a:t>
+                        </a:r>
+                      </a:p>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:solidFill>
+                              <a:srgbClr val="51FF21"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>PASSED</a:t>
+                        </a:r>
+                      </a:p>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>FAILED</a:t>
+                        </a:r>
+                      </a:p>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:solidFill>
+                              <a:srgbClr val="FFFF00"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>SKIPPED</a:t>
+                        </a:r>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                  <xdr:sp macro="" textlink="'DB Data'!$D$2">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="36" name="TextBox 35"/>
+                      <xdr:cNvSpPr txBox="1"/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="923925" y="1116550"/>
+                        <a:ext cx="466725" cy="247651"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:noFill/>
+                      <a:ln w="9525" cmpd="sng">
+                        <a:noFill/>
+                      </a:ln>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:lnRef>
+                      <a:fillRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="dk1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="ctr"/>
+                        <a:fld id="{41487303-CB05-47E9-B96D-7F5847EFEAA3}" type="TxLink">
+                          <a:rPr lang="en-US" sz="1100" b="0">
+                            <a:solidFill>
+                              <a:srgbClr val="27F959"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:pPr algn="ctr"/>
+                          <a:t>1</a:t>
+                        </a:fld>
+                        <a:endParaRPr lang="en-US" sz="1100" b="0">
+                          <a:solidFill>
+                            <a:srgbClr val="27F959"/>
+                          </a:solidFill>
+                        </a:endParaRPr>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                  <xdr:sp macro="" textlink="'DB Data'!$D$3">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="37" name="TextBox 36"/>
+                      <xdr:cNvSpPr txBox="1"/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="923925" y="1275833"/>
+                        <a:ext cx="466725" cy="251635"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:noFill/>
+                      <a:ln w="9525" cmpd="sng">
+                        <a:noFill/>
+                      </a:ln>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:lnRef>
+                      <a:fillRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="dk1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="ctr"/>
+                        <a:fld id="{B77A6D75-C39D-49DE-828E-57821B240FA1}" type="TxLink">
+                          <a:rPr lang="en-US" sz="1100" b="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:pPr algn="ctr"/>
+                          <a:t>2</a:t>
+                        </a:fld>
+                        <a:endParaRPr lang="en-US" sz="1100" b="0">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                        </a:endParaRPr>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                  <xdr:sp macro="" textlink="'DB Data'!$D$4">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="38" name="TextBox 37"/>
+                      <xdr:cNvSpPr txBox="1"/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="914400" y="1435170"/>
+                        <a:ext cx="485775" cy="239006"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:noFill/>
+                      <a:ln w="9525" cmpd="sng">
+                        <a:noFill/>
+                      </a:ln>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:lnRef>
+                      <a:fillRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="dk1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="ctr"/>
+                        <a:fld id="{7219BB06-5362-46C7-AE8B-8D4E64C9DED1}" type="TxLink">
+                          <a:rPr lang="en-US" sz="1100" b="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FFFF00"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:pPr algn="ctr"/>
+                          <a:t>1</a:t>
+                        </a:fld>
+                        <a:endParaRPr lang="en-US" sz="1100" b="0">
+                          <a:solidFill>
+                            <a:srgbClr val="FFFF00"/>
+                          </a:solidFill>
+                        </a:endParaRPr>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                </xdr:grpSp>
+                <xdr:graphicFrame macro="">
+                  <xdr:nvGraphicFramePr>
+                    <xdr:cNvPr id="34" name="FeatureDough"/>
+                    <xdr:cNvGraphicFramePr>
+                      <a:graphicFrameLocks/>
+                    </xdr:cNvGraphicFramePr>
+                  </xdr:nvGraphicFramePr>
+                  <xdr:xfrm>
+                    <a:off x="1295400" y="488002"/>
+                    <a:ext cx="2423160" cy="2634366"/>
+                  </xdr:xfrm>
+                  <a:graphic>
+                    <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+                      <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+                    </a:graphicData>
+                  </a:graphic>
+                </xdr:graphicFrame>
+              </xdr:grpSp>
+            </xdr:grpSp>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="17" name="Group 16"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="3790950" y="80808"/>
+                  <a:ext cx="4480560" cy="3059264"/>
+                  <a:chOff x="3790950" y="80808"/>
+                  <a:chExt cx="4480560" cy="3059264"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="25" name="Rectangle 24"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="3790950" y="80808"/>
+                    <a:ext cx="4391026" cy="3059264"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:ln w="6350"/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr lang="en-US" sz="1100"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="26" name="Rounded Rectangle 25"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="3876675" y="156697"/>
+                    <a:ext cx="1280160" cy="849796"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="roundRect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:schemeClr val="bg1">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="3">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="3">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" b="1" u="none">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>SCENARIOS</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200">
+                        <a:solidFill>
+                          <a:srgbClr val="51FF21"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>PASSED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>FAILED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200">
+                        <a:solidFill>
+                          <a:srgbClr val="FFFF00"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>SKIPPED</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$F$2">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="27" name="TextBox 26"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="4533900" y="355272"/>
+                    <a:ext cx="590550" cy="247651"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{5E830E56-6EF0-481D-AF4F-B51C1C996EFA}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="51FF21"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>2</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="51FF21"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$F$3">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="28" name="TextBox 27"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="4514850" y="536247"/>
+                    <a:ext cx="619124" cy="247651"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{BD0EF753-9A18-4975-B169-ECA4EE0CEA9F}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>2</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$F$4">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="29" name="TextBox 28"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="4514850" y="708372"/>
+                    <a:ext cx="628650" cy="257174"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{A34595C3-6342-4982-8F51-D73860015449}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="FFFF00"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>2</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FFFF00"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:graphicFrame macro="">
+                <xdr:nvGraphicFramePr>
+                  <xdr:cNvPr id="30" name="FeatureDough"/>
+                  <xdr:cNvGraphicFramePr>
+                    <a:graphicFrameLocks/>
+                  </xdr:cNvGraphicFramePr>
+                </xdr:nvGraphicFramePr>
+                <xdr:xfrm>
+                  <a:off x="4933950" y="80808"/>
+                  <a:ext cx="3337560" cy="3016775"/>
+                </xdr:xfrm>
+                <a:graphic>
+                  <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+                    <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+                  </a:graphicData>
+                </a:graphic>
+              </xdr:graphicFrame>
+            </xdr:grpSp>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="18" name="Group 17"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="8258175" y="541114"/>
+                  <a:ext cx="3566160" cy="2634366"/>
+                  <a:chOff x="8258175" y="541114"/>
+                  <a:chExt cx="3566160" cy="2634366"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="19" name="Rectangle 18"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="8258175" y="872469"/>
+                    <a:ext cx="3566160" cy="2260456"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:ln w="6350"/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr lang="en-US" sz="1100"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="20" name="Rounded Rectangle 19"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="8296276" y="900268"/>
+                    <a:ext cx="1188720" cy="807306"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="roundRect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:schemeClr val="bg1">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="3">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="3">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1300" b="1" u="none">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>STEPS</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:srgbClr val="51FF21"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>PASSED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>FAILED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:srgbClr val="FFFF00"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>SKIPPED</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$H$2">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="21" name="TextBox 20"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="8915400" y="1098843"/>
+                    <a:ext cx="552450" cy="247651"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{ECACBD74-B5B9-479E-8C2E-C9684999A572}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="51FF21"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>6</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="51FF21"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$H$3">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="22" name="TextBox 21"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="8886825" y="1262113"/>
+                    <a:ext cx="590550" cy="247651"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{E24417FB-CCF3-4060-A9AB-23F9E2CDA81A}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>1</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$H$4">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="23" name="TextBox 22"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="8896350" y="1425387"/>
+                    <a:ext cx="571499" cy="257174"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{04B0E76C-90E2-4732-8606-78D62C393D8A}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="FFFF00"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>1</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FFFF00"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:graphicFrame macro="">
+                <xdr:nvGraphicFramePr>
+                  <xdr:cNvPr id="24" name="FeatureDough"/>
+                  <xdr:cNvGraphicFramePr>
+                    <a:graphicFrameLocks/>
+                  </xdr:cNvGraphicFramePr>
+                </xdr:nvGraphicFramePr>
+                <xdr:xfrm>
+                  <a:off x="9382124" y="541114"/>
+                  <a:ext cx="2423160" cy="2634366"/>
+                </xdr:xfrm>
+                <a:graphic>
+                  <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+                    <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+                  </a:graphicData>
+                </a:graphic>
+              </xdr:graphicFrame>
+            </xdr:grpSp>
+          </xdr:grpSp>
+          <xdr:sp macro="" textlink="'DB Data'!$D$6">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="39" name="TextBox 38"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="838202" y="2981324"/>
+                <a:ext cx="761998" cy="323851"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:fld id="{FD27177A-2FAE-4819-9CF2-755E96E9C0C2}" type="TxLink">
+                  <a:rPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:pPr algn="l"/>
+                  <a:t>25%</a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" sz="2000" b="1" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="'DB Data'!$F$6">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="40" name="TextBox 39"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4476750" y="2971800"/>
+                <a:ext cx="885825" cy="333376"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:fld id="{ED9CD974-7DAD-48B1-B99F-4E607C30EBEE}" type="TxLink">
+                  <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:pPr algn="l"/>
+                  <a:t>33%</a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" sz="2400" b="1" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="3" name="Rectangle 2"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="180975" y="85725"/>
+                <a:ext cx="3566160" cy="781050"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="0" i="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Duration</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink=" 'DB Data'!$B$6">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1038226" y="114300"/>
+              <a:ext cx="2686050" cy="695325"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:fld id="{ED1868E5-AE56-4ACA-8944-337939004EF9}" type="TxLink">
+                <a:rPr lang="en-US" sz="2400" b="1" i="1" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                </a:rPr>
+                <a:pPr algn="ctr"/>
+                <a:t>0.253 s</a:t>
+              </a:fld>
+              <a:endParaRPr lang="en-US" sz="2400" b="1" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink=" 'DB Data'!$B$4">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="TextBox 6"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9315451" y="85725"/>
+            <a:ext cx="2514600" cy="352426"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:fld id="{07321330-A736-45CE-AAA5-68120F007E07}" type="TxLink">
+              <a:rPr lang="en-US" sz="1400" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:pPr algn="ctr"/>
+              <a:t>Jan 06, 2023 2:45:09 PM</a:t>
+            </a:fld>
+            <a:endParaRPr lang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink=" 'DB Data'!$B$5">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="TextBox 7"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9296400" y="504824"/>
+            <a:ext cx="2533650" cy="342901"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:fld id="{C66D813D-5F81-41CE-8DAE-BBDD038F8F76}" type="TxLink">
+              <a:rPr lang="en-US" sz="1400" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:pPr algn="ctr"/>
+              <a:t>Jan 06, 2023 2:45:09 PM</a:t>
+            </a:fld>
+            <a:endParaRPr lang="en-US" sz="1400" i="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1638300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="TextBox 44"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3819525" y="2990850"/>
+          <a:ext cx="771525" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Pass % - </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="200025" y="2990850"/>
+          <a:ext cx="771525" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Pass % - </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7300,7 +7489,7 @@
   <dimension ref="B19:G60"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7690,7 +7879,7 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C6" sqref="C6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7700,7 +7889,7 @@
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
@@ -7834,6 +8023,27 @@
       <c r="B6" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="39">
+        <f>D2/D5</f>
+        <v>0.25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="39">
+        <f>F2/F5</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="39">
+        <f>H2/H5</f>
+        <v>0.75</v>
+      </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">

--- a/src/main/resources/templates/report template - All DB.xlsx
+++ b/src/main/resources/templates/report template - All DB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel Extent\UI Changes - Jan 23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse-workspace\extent-excel-report\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="63">
   <si>
     <t>Duration</t>
   </si>
@@ -216,15 +216,6 @@
   </si>
   <si>
     <t>STEP / HOOK TEXT</t>
-  </si>
-  <si>
-    <t>Features Pass %</t>
-  </si>
-  <si>
-    <t>Scenarios Pass %</t>
-  </si>
-  <si>
-    <t>Steps Pass %</t>
   </si>
 </sst>
 </file>
@@ -492,13 +483,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,7 +538,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
@@ -555,14 +546,14 @@
               <a:t>Tags with</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" baseline="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="1" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:rPr>
               <a:t> Failed &amp; Skipped Scenarios</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1400" b="0">
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="1">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -575,7 +566,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.9880212949228394E-2"/>
+          <c:y val="0.11750877449771498"/>
+          <c:w val="0.95813725490196078"/>
+          <c:h val="0.84734403472530151"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -931,7 +932,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
@@ -942,11 +943,22 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.3309046751669701E-2"/>
+          <c:y val="0.10919339164237124"/>
+          <c:w val="0.95333333333333337"/>
+          <c:h val="0.84804664723032075"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -991,6 +1003,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1064,6 +1077,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1137,6 +1151,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1229,6 +1244,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1390,35 +1406,6 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'DB Data'!$C$2:$C$4</c:f>
@@ -1516,7 +1503,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
@@ -1525,7 +1512,7 @@
               <a:t>Features with Failed &amp; Skipped</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" baseline="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="1" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
@@ -1534,7 +1521,7 @@
               <a:t> Scenarios</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
@@ -1545,12 +1532,21 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.587826839649571E-2"/>
+          <c:y val="0.10654873856176561"/>
+          <c:w val="0.89369296921336749"/>
+          <c:h val="0.85018673119905308"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -1595,7 +1591,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1669,7 +1664,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -1743,7 +1737,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -1840,7 +1833,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:ln>
@@ -1910,7 +1902,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
@@ -1920,12 +1912,21 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.0031919744642044E-2"/>
+          <c:y val="0.10668158781898149"/>
+          <c:w val="0.92990424076607392"/>
+          <c:h val="0.8499999379835731"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -1970,7 +1971,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2044,7 +2044,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2118,7 +2117,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2210,7 +2208,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2263,17 +2260,47 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Features</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.9362468167315514E-3"/>
+          <c:y val="6.4713026203216312E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.2823665966057035E-2"/>
-          <c:y val="0.18503976548058501"/>
-          <c:w val="0.96715927750410535"/>
-          <c:h val="0.78524645049290098"/>
+          <c:x val="7.3672686824927558E-2"/>
+          <c:y val="0.11902669624860428"/>
+          <c:w val="0.92151704085316477"/>
+          <c:h val="0.85596714084772552"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -2487,17 +2514,47 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Scenarios</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.9107001159738751E-3"/>
+          <c:y val="3.7140215132502832E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4867807619937916E-2"/>
-          <c:y val="4.6638140302884677E-2"/>
-          <c:w val="0.90814427306175771"/>
-          <c:h val="0.93372580188039878"/>
+          <c:x val="5.6571751205517912E-2"/>
+          <c:y val="8.4536101166436714E-2"/>
+          <c:w val="0.92725874381981321"/>
+          <c:h val="0.88851560210722469"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -2711,17 +2768,47 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Steps</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.0163677357506801E-2"/>
+          <c:y val="5.5749128919860627E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.1858952413557008E-2"/>
-          <c:y val="0.17474711947447277"/>
-          <c:w val="0.91710518398638907"/>
-          <c:h val="0.77966294826254767"/>
+          <c:x val="5.6917458262785006E-2"/>
+          <c:y val="0.10406650388213669"/>
+          <c:w val="0.93302459414795369"/>
+          <c:h val="0.87775832898936412"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -2945,7 +3032,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
@@ -2955,11 +3042,22 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.3278738246891114E-2"/>
+          <c:y val="0.10500003204542271"/>
+          <c:w val="0.953375796178344"/>
+          <c:h val="0.85236429602767994"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -3004,6 +3102,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3077,6 +3176,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3150,6 +3250,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3241,6 +3342,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3400,35 +3502,6 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'DB Data'!$E$2:$E$4</c:f>
@@ -3531,7 +3604,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
@@ -3541,11 +3614,22 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.8395445134575568E-2"/>
+          <c:y val="0.10887596899224808"/>
+          <c:w val="0.9602173913043478"/>
+          <c:h val="0.8484883720930233"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -3590,6 +3674,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3663,6 +3748,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3736,6 +3822,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3827,6 +3914,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3872,15 +3960,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>186487</xdr:rowOff>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>81712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3910,9 +3998,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>190498</xdr:rowOff>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3936,15 +4024,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>981075</xdr:colOff>
+      <xdr:colOff>1181100</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>186477</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3968,53 +4056,53 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>47623</xdr:colOff>
+      <xdr:colOff>57148</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>80010</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>158114</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="46" name="Group 45"/>
+        <xdr:cNvPr id="9" name="Group 8"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="180973" y="66675"/>
-          <a:ext cx="11662412" cy="3329939"/>
-          <a:chOff x="180973" y="66675"/>
-          <a:chExt cx="11662412" cy="3329939"/>
+          <a:off x="190498" y="0"/>
+          <a:ext cx="12068177" cy="3438525"/>
+          <a:chOff x="161923" y="0"/>
+          <a:chExt cx="12068177" cy="3438525"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="13" name="Group 12"/>
+          <xdr:cNvPr id="42" name="Group 41"/>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="180973" y="66675"/>
-            <a:ext cx="11662412" cy="3329939"/>
-            <a:chOff x="180973" y="76200"/>
-            <a:chExt cx="11662412" cy="3329939"/>
+            <a:off x="161923" y="0"/>
+            <a:ext cx="12068177" cy="3438525"/>
+            <a:chOff x="171448" y="19050"/>
+            <a:chExt cx="12068177" cy="3438525"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="9" name="Group 8"/>
+            <xdr:cNvPr id="13" name="Group 12"/>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="180973" y="76200"/>
-              <a:ext cx="11662412" cy="3329939"/>
-              <a:chOff x="180973" y="76200"/>
-              <a:chExt cx="11662412" cy="3329939"/>
+              <a:off x="8477248" y="133350"/>
+              <a:ext cx="3762377" cy="685800"/>
+              <a:chOff x="8477248" y="133350"/>
+              <a:chExt cx="3762377" cy="685800"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -4024,8 +4112,8 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="8277223" y="76200"/>
-                <a:ext cx="3566160" cy="361950"/>
+                <a:off x="8477248" y="133350"/>
+                <a:ext cx="3749040" cy="320040"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -4061,7 +4149,7 @@
               <a:p>
                 <a:pPr lvl="0" algn="l"/>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1600" b="0" i="0">
+                  <a:rPr lang="en-US" sz="1400" b="0" i="1">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -4069,7 +4157,7 @@
                   <a:t>Start Time</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2400">
+                  <a:rPr lang="en-US" sz="1400" i="1">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -4086,8 +4174,8 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="8277224" y="495300"/>
-                <a:ext cx="3566160" cy="361950"/>
+                <a:off x="8477249" y="495300"/>
+                <a:ext cx="3749040" cy="320040"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -4123,7 +4211,7 @@
               <a:p>
                 <a:pPr algn="l"/>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1600" b="0" i="0">
+                  <a:rPr lang="en-US" sz="1400" b="0" i="1">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -4131,7 +4219,7 @@
                   <a:t>End Time</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2400">
+                  <a:rPr lang="en-US" sz="1400" i="1">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -4141,6 +4229,128 @@
               </a:p>
             </xdr:txBody>
           </xdr:sp>
+          <xdr:sp macro="" textlink=" 'DB Data'!$B$4">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="7" name="TextBox 6"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="9563100" y="133351"/>
+                <a:ext cx="2676525" cy="323850"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:fld id="{07321330-A736-45CE-AAA5-68120F007E07}" type="TxLink">
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:pPr algn="ctr"/>
+                  <a:t>Jan 06, 2023 2:45:09 PM</a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" sz="1400" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink=" 'DB Data'!$B$5">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="8" name="TextBox 7"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="9572625" y="495300"/>
+                <a:ext cx="2667000" cy="323850"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:fld id="{C66D813D-5F81-41CE-8DAE-BBDD038F8F76}" type="TxLink">
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:pPr algn="ctr"/>
+                  <a:t>Jan 06, 2023 2:45:09 PM</a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" sz="1400" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="2" name="Group 100"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="171448" y="19050"/>
+              <a:ext cx="12054842" cy="3438525"/>
+              <a:chOff x="171448" y="19050"/>
+              <a:chExt cx="12054842" cy="3438525"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
           <xdr:grpSp>
             <xdr:nvGrpSpPr>
               <xdr:cNvPr id="10" name="Group 9"/>
@@ -4148,10 +4358,10 @@
             </xdr:nvGrpSpPr>
             <xdr:grpSpPr>
               <a:xfrm>
-                <a:off x="180973" y="76200"/>
-                <a:ext cx="11662412" cy="3329939"/>
-                <a:chOff x="161923" y="80808"/>
-                <a:chExt cx="11662412" cy="3094672"/>
+                <a:off x="171448" y="19050"/>
+                <a:ext cx="12054842" cy="3438525"/>
+                <a:chOff x="152398" y="27696"/>
+                <a:chExt cx="12054842" cy="3195586"/>
               </a:xfrm>
             </xdr:grpSpPr>
             <xdr:grpSp>
@@ -4161,10 +4371,10 @@
               </xdr:nvGrpSpPr>
               <xdr:grpSpPr>
                 <a:xfrm>
-                  <a:off x="161923" y="488002"/>
-                  <a:ext cx="3566160" cy="2646498"/>
-                  <a:chOff x="161923" y="488002"/>
-                  <a:chExt cx="3566160" cy="2646498"/>
+                  <a:off x="152398" y="656192"/>
+                  <a:ext cx="3749040" cy="2563550"/>
+                  <a:chOff x="152398" y="656192"/>
+                  <a:chExt cx="3749040" cy="2563550"/>
                 </a:xfrm>
               </xdr:grpSpPr>
               <xdr:sp macro="" textlink="">
@@ -4174,8 +4384,8 @@
                 </xdr:nvSpPr>
                 <xdr:spPr>
                   <a:xfrm>
-                    <a:off x="161923" y="877491"/>
-                    <a:ext cx="3566160" cy="2257009"/>
+                    <a:off x="152398" y="815526"/>
+                    <a:ext cx="3749040" cy="2381198"/>
                   </a:xfrm>
                   <a:prstGeom prst="rect">
                     <a:avLst/>
@@ -4215,10 +4425,10 @@
                 </xdr:nvGrpSpPr>
                 <xdr:grpSpPr>
                   <a:xfrm>
-                    <a:off x="209551" y="488002"/>
-                    <a:ext cx="3509009" cy="2634366"/>
-                    <a:chOff x="209551" y="488002"/>
-                    <a:chExt cx="3509009" cy="2634366"/>
+                    <a:off x="247650" y="656192"/>
+                    <a:ext cx="3621406" cy="2563550"/>
+                    <a:chOff x="247650" y="656192"/>
+                    <a:chExt cx="3621406" cy="2563550"/>
                   </a:xfrm>
                 </xdr:grpSpPr>
                 <xdr:grpSp>
@@ -4228,10 +4438,10 @@
                   </xdr:nvGrpSpPr>
                   <xdr:grpSpPr>
                     <a:xfrm>
-                      <a:off x="209551" y="912898"/>
-                      <a:ext cx="1190624" cy="807306"/>
-                      <a:chOff x="209551" y="912898"/>
-                      <a:chExt cx="1190624" cy="807306"/>
+                      <a:off x="2771776" y="859785"/>
+                      <a:ext cx="1097280" cy="764816"/>
+                      <a:chOff x="2771776" y="859785"/>
+                      <a:chExt cx="1097280" cy="764816"/>
                     </a:xfrm>
                   </xdr:grpSpPr>
                   <xdr:sp macro="" textlink="">
@@ -4241,8 +4451,8 @@
                     </xdr:nvSpPr>
                     <xdr:spPr>
                       <a:xfrm>
-                        <a:off x="209551" y="912898"/>
-                        <a:ext cx="1190624" cy="807306"/>
+                        <a:off x="2771776" y="859785"/>
+                        <a:ext cx="1097280" cy="764816"/>
                       </a:xfrm>
                       <a:prstGeom prst="roundRect">
                         <a:avLst/>
@@ -4270,17 +4480,6 @@
                     <xdr:txBody>
                       <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
                       <a:lstStyle/>
-                      <a:p>
-                        <a:pPr algn="ctr"/>
-                        <a:r>
-                          <a:rPr lang="en-US" sz="1300" b="1" u="none">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                          </a:rPr>
-                          <a:t>FEATURES</a:t>
-                        </a:r>
-                      </a:p>
                       <a:p>
                         <a:pPr algn="l"/>
                         <a:r>
@@ -4314,6 +4513,17 @@
                           <a:t>SKIPPED</a:t>
                         </a:r>
                       </a:p>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>TOTAL</a:t>
+                        </a:r>
+                      </a:p>
                     </xdr:txBody>
                   </xdr:sp>
                   <xdr:sp macro="" textlink="'DB Data'!$D$2">
@@ -4323,8 +4533,8 @@
                     </xdr:nvSpPr>
                     <xdr:spPr>
                       <a:xfrm>
-                        <a:off x="923925" y="1116550"/>
-                        <a:ext cx="466725" cy="247651"/>
+                        <a:off x="3381375" y="868694"/>
+                        <a:ext cx="485775" cy="247651"/>
                       </a:xfrm>
                       <a:prstGeom prst="rect">
                         <a:avLst/>
@@ -4377,8 +4587,8 @@
                     </xdr:nvSpPr>
                     <xdr:spPr>
                       <a:xfrm>
-                        <a:off x="923925" y="1275833"/>
-                        <a:ext cx="466725" cy="251635"/>
+                        <a:off x="3381375" y="1027977"/>
+                        <a:ext cx="485775" cy="251635"/>
                       </a:xfrm>
                       <a:prstGeom prst="rect">
                         <a:avLst/>
@@ -4431,8 +4641,8 @@
                     </xdr:nvSpPr>
                     <xdr:spPr>
                       <a:xfrm>
-                        <a:off x="914400" y="1435170"/>
-                        <a:ext cx="485775" cy="239006"/>
+                        <a:off x="3371850" y="1187314"/>
+                        <a:ext cx="495300" cy="239006"/>
                       </a:xfrm>
                       <a:prstGeom prst="rect">
                         <a:avLst/>
@@ -4487,8 +4697,8 @@
                     </xdr:cNvGraphicFramePr>
                   </xdr:nvGraphicFramePr>
                   <xdr:xfrm>
-                    <a:off x="1295400" y="488002"/>
-                    <a:ext cx="2423160" cy="2634366"/>
+                    <a:off x="247650" y="656192"/>
+                    <a:ext cx="2562225" cy="2563550"/>
                   </xdr:xfrm>
                   <a:graphic>
                     <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4505,10 +4715,10 @@
               </xdr:nvGrpSpPr>
               <xdr:grpSpPr>
                 <a:xfrm>
-                  <a:off x="3790950" y="80808"/>
-                  <a:ext cx="4480560" cy="3059264"/>
-                  <a:chOff x="3790950" y="80808"/>
-                  <a:chExt cx="4480560" cy="3059264"/>
+                  <a:off x="3981450" y="27696"/>
+                  <a:ext cx="4391026" cy="3177881"/>
+                  <a:chOff x="3981450" y="27696"/>
+                  <a:chExt cx="4391026" cy="3177881"/>
                 </a:xfrm>
               </xdr:grpSpPr>
               <xdr:sp macro="" textlink="">
@@ -4518,8 +4728,8 @@
                 </xdr:nvSpPr>
                 <xdr:spPr>
                   <a:xfrm>
-                    <a:off x="3790950" y="80808"/>
-                    <a:ext cx="4391026" cy="3059264"/>
+                    <a:off x="3981450" y="133921"/>
+                    <a:ext cx="4391026" cy="3059265"/>
                   </a:xfrm>
                   <a:prstGeom prst="rect">
                     <a:avLst/>
@@ -4559,8 +4769,8 @@
                 </xdr:nvSpPr>
                 <xdr:spPr>
                   <a:xfrm>
-                    <a:off x="3876675" y="156697"/>
-                    <a:ext cx="1280160" cy="849796"/>
+                    <a:off x="7143750" y="183252"/>
+                    <a:ext cx="1188720" cy="849796"/>
                   </a:xfrm>
                   <a:prstGeom prst="roundRect">
                     <a:avLst/>
@@ -4590,14 +4800,11 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr algn="ctr"/>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1600" b="1" u="none">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>SCENARIOS</a:t>
-                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1600" b="1" u="none">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
                   </a:p>
                   <a:p>
                     <a:pPr algn="l"/>
@@ -4632,6 +4839,17 @@
                       <a:t>SKIPPED</a:t>
                     </a:r>
                   </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>TOTAL</a:t>
+                    </a:r>
+                  </a:p>
                 </xdr:txBody>
               </xdr:sp>
               <xdr:sp macro="" textlink="'DB Data'!$F$2">
@@ -4641,8 +4859,8 @@
                 </xdr:nvSpPr>
                 <xdr:spPr>
                   <a:xfrm>
-                    <a:off x="4533900" y="355272"/>
-                    <a:ext cx="590550" cy="247651"/>
+                    <a:off x="7772400" y="213640"/>
+                    <a:ext cx="542925" cy="247651"/>
                   </a:xfrm>
                   <a:prstGeom prst="rect">
                     <a:avLst/>
@@ -4696,8 +4914,8 @@
                 </xdr:nvSpPr>
                 <xdr:spPr>
                   <a:xfrm>
-                    <a:off x="4514850" y="536247"/>
-                    <a:ext cx="619124" cy="247651"/>
+                    <a:off x="7772400" y="394614"/>
+                    <a:ext cx="542926" cy="247651"/>
                   </a:xfrm>
                   <a:prstGeom prst="rect">
                     <a:avLst/>
@@ -4751,8 +4969,8 @@
                 </xdr:nvSpPr>
                 <xdr:spPr>
                   <a:xfrm>
-                    <a:off x="4514850" y="708372"/>
-                    <a:ext cx="628650" cy="257174"/>
+                    <a:off x="7781924" y="557888"/>
+                    <a:ext cx="533401" cy="257174"/>
                   </a:xfrm>
                   <a:prstGeom prst="rect">
                     <a:avLst/>
@@ -4807,8 +5025,8 @@
                   </xdr:cNvGraphicFramePr>
                 </xdr:nvGraphicFramePr>
                 <xdr:xfrm>
-                  <a:off x="4933950" y="80808"/>
-                  <a:ext cx="3337560" cy="3016775"/>
+                  <a:off x="4019551" y="27696"/>
+                  <a:ext cx="3276600" cy="3177881"/>
                 </xdr:xfrm>
                 <a:graphic>
                   <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4824,10 +5042,10 @@
               </xdr:nvGrpSpPr>
               <xdr:grpSpPr>
                 <a:xfrm>
-                  <a:off x="8258175" y="541114"/>
-                  <a:ext cx="3566160" cy="2634366"/>
-                  <a:chOff x="8258175" y="541114"/>
-                  <a:chExt cx="3566160" cy="2634366"/>
+                  <a:off x="8458200" y="682747"/>
+                  <a:ext cx="3749040" cy="2540535"/>
+                  <a:chOff x="8458200" y="682747"/>
+                  <a:chExt cx="3749040" cy="2540535"/>
                 </a:xfrm>
               </xdr:grpSpPr>
               <xdr:sp macro="" textlink="">
@@ -4837,8 +5055,8 @@
                 </xdr:nvSpPr>
                 <xdr:spPr>
                   <a:xfrm>
-                    <a:off x="8258175" y="872469"/>
-                    <a:ext cx="3566160" cy="2260456"/>
+                    <a:off x="8458200" y="815526"/>
+                    <a:ext cx="3749040" cy="2379428"/>
                   </a:xfrm>
                   <a:prstGeom prst="rect">
                     <a:avLst/>
@@ -4878,8 +5096,8 @@
                 </xdr:nvSpPr>
                 <xdr:spPr>
                   <a:xfrm>
-                    <a:off x="8296276" y="900268"/>
-                    <a:ext cx="1188720" cy="807306"/>
+                    <a:off x="11077576" y="856008"/>
+                    <a:ext cx="1097280" cy="764816"/>
                   </a:xfrm>
                   <a:prstGeom prst="roundRect">
                     <a:avLst/>
@@ -4909,14 +5127,11 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr algn="ctr"/>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1300" b="1" u="none">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>STEPS</a:t>
-                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1300" b="1" u="none">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
                   </a:p>
                   <a:p>
                     <a:pPr algn="l"/>
@@ -4951,6 +5166,17 @@
                       <a:t>SKIPPED</a:t>
                     </a:r>
                   </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>TOTAL</a:t>
+                    </a:r>
+                  </a:p>
                 </xdr:txBody>
               </xdr:sp>
               <xdr:sp macro="" textlink="'DB Data'!$H$2">
@@ -4960,8 +5186,8 @@
                 </xdr:nvSpPr>
                 <xdr:spPr>
                   <a:xfrm>
-                    <a:off x="8915400" y="1098843"/>
-                    <a:ext cx="552450" cy="247651"/>
+                    <a:off x="11668125" y="859839"/>
+                    <a:ext cx="476250" cy="247651"/>
                   </a:xfrm>
                   <a:prstGeom prst="rect">
                     <a:avLst/>
@@ -5015,8 +5241,8 @@
                 </xdr:nvSpPr>
                 <xdr:spPr>
                   <a:xfrm>
-                    <a:off x="8886825" y="1262113"/>
-                    <a:ext cx="590550" cy="247651"/>
+                    <a:off x="11658600" y="1023110"/>
+                    <a:ext cx="485776" cy="247651"/>
                   </a:xfrm>
                   <a:prstGeom prst="rect">
                     <a:avLst/>
@@ -5070,8 +5296,8 @@
                 </xdr:nvSpPr>
                 <xdr:spPr>
                   <a:xfrm>
-                    <a:off x="8896350" y="1425387"/>
-                    <a:ext cx="571499" cy="257174"/>
+                    <a:off x="11668125" y="1177529"/>
+                    <a:ext cx="476250" cy="257174"/>
                   </a:xfrm>
                   <a:prstGeom prst="rect">
                     <a:avLst/>
@@ -5126,8 +5352,8 @@
                   </xdr:cNvGraphicFramePr>
                 </xdr:nvGraphicFramePr>
                 <xdr:xfrm>
-                  <a:off x="9382124" y="541114"/>
-                  <a:ext cx="2423160" cy="2634366"/>
+                  <a:off x="8572501" y="682747"/>
+                  <a:ext cx="2543174" cy="2540535"/>
                 </xdr:xfrm>
                 <a:graphic>
                   <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5137,15 +5363,15 @@
               </xdr:graphicFrame>
             </xdr:grpSp>
           </xdr:grpSp>
-          <xdr:sp macro="" textlink="'DB Data'!$D$6">
+          <xdr:sp macro="" textlink="'DB Data'!$F$5">
             <xdr:nvSpPr>
               <xdr:cNvPr id="39" name="TextBox 38"/>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="838202" y="2981324"/>
-                <a:ext cx="761998" cy="323851"/>
+                <a:off x="7791450" y="781050"/>
+                <a:ext cx="542925" cy="276725"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -5170,37 +5396,37 @@
               </a:fontRef>
             </xdr:style>
             <xdr:txBody>
-              <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr algn="l"/>
-                <a:fld id="{FD27177A-2FAE-4819-9CF2-755E96E9C0C2}" type="TxLink">
-                  <a:rPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike">
+                <a:pPr algn="ctr"/>
+                <a:fld id="{C1C65169-A7E7-4F44-8F1B-A4A10551DED6}" type="TxLink">
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
                     <a:solidFill>
-                      <a:schemeClr val="bg1"/>
+                      <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:rPr>
-                  <a:pPr algn="l"/>
-                  <a:t>25%</a:t>
+                  <a:pPr algn="ctr"/>
+                  <a:t>6</a:t>
                 </a:fld>
-                <a:endParaRPr lang="en-US" sz="2000" b="1" i="1">
+                <a:endParaRPr lang="en-US" sz="1200" b="0">
                   <a:solidFill>
-                    <a:schemeClr val="bg1"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                 </a:endParaRPr>
               </a:p>
             </xdr:txBody>
           </xdr:sp>
-          <xdr:sp macro="" textlink="'DB Data'!$F$6">
+          <xdr:sp macro="" textlink="'DB Data'!$D$5">
             <xdr:nvSpPr>
               <xdr:cNvPr id="40" name="TextBox 39"/>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="4476750" y="2971800"/>
-                <a:ext cx="885825" cy="333376"/>
+                <a:off x="3390900" y="1438275"/>
+                <a:ext cx="495299" cy="257176"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -5225,156 +5451,156 @@
               </a:fontRef>
             </xdr:style>
             <xdr:txBody>
-              <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr algn="l"/>
-                <a:fld id="{ED9CD974-7DAD-48B1-B99F-4E607C30EBEE}" type="TxLink">
-                  <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
+                <a:pPr algn="ctr"/>
+                <a:fld id="{C751D109-05C5-4D27-8561-41C7DB1DFED0}" type="TxLink">
+                  <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
                     <a:solidFill>
-                      <a:schemeClr val="bg1"/>
+                      <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:rPr>
-                  <a:pPr algn="l"/>
-                  <a:t>33%</a:t>
+                  <a:pPr algn="ctr"/>
+                  <a:t>4</a:t>
                 </a:fld>
-                <a:endParaRPr lang="en-US" sz="2400" b="1" i="1">
+                <a:endParaRPr lang="en-US" sz="1100" b="0">
                   <a:solidFill>
-                    <a:schemeClr val="bg1"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                 </a:endParaRPr>
               </a:p>
             </xdr:txBody>
           </xdr:sp>
-          <xdr:sp macro="" textlink="">
+          <xdr:sp macro="" textlink="'DB Data'!$H$5">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="3" name="Rectangle 2"/>
-              <xdr:cNvSpPr/>
+              <xdr:cNvPr id="41" name="TextBox 40"/>
+              <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="180975" y="85725"/>
-                <a:ext cx="3566160" cy="781050"/>
+                <a:off x="11687174" y="1428750"/>
+                <a:ext cx="476251" cy="276725"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
               </a:prstGeom>
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
               </a:ln>
             </xdr:spPr>
             <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
               </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
               </a:fillRef>
               <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
+                <a:scrgbClr r="0" g="0" b="0"/>
               </a:effectRef>
               <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
+                <a:schemeClr val="dk1"/>
               </a:fontRef>
             </xdr:style>
             <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr algn="l"/>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1600" b="0" i="0">
+                <a:pPr algn="ctr"/>
+                <a:fld id="{9404FC27-F618-4129-9790-CCC5E3B452F7}" type="TxLink">
+                  <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
                     <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
+                      <a:srgbClr val="000000"/>
                     </a:solidFill>
+                    <a:latin typeface="Calibri"/>
                   </a:rPr>
-                  <a:t>Duration</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1600">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t> </a:t>
-                </a:r>
+                  <a:pPr algn="ctr"/>
+                  <a:t>8</a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" sz="1200" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </xdr:txBody>
           </xdr:sp>
         </xdr:grpSp>
-        <xdr:sp macro="" textlink=" 'DB Data'!$B$6">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="TextBox 5"/>
-            <xdr:cNvSpPr txBox="1"/>
+            <xdr:cNvPr id="3" name="Rectangle 2"/>
+            <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1038226" y="114300"/>
-              <a:ext cx="2686050" cy="695325"/>
+              <a:off x="171450" y="133349"/>
+              <a:ext cx="3749040" cy="685800"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
             </a:ln>
           </xdr:spPr>
           <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
             </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
             </a:fillRef>
             <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
+              <a:schemeClr val="accent1"/>
             </a:effectRef>
             <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
+              <a:schemeClr val="lt1"/>
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr algn="ctr"/>
-              <a:fld id="{ED1868E5-AE56-4ACA-8944-337939004EF9}" type="TxLink">
-                <a:rPr lang="en-US" sz="2400" b="1" i="1" u="none" strike="noStrike">
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="0" i="1">
                   <a:solidFill>
-                    <a:schemeClr val="accent6"/>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Calibri"/>
                 </a:rPr>
-                <a:pPr algn="ctr"/>
-                <a:t>0.253 s</a:t>
-              </a:fld>
-              <a:endParaRPr lang="en-US" sz="2400" b="1" i="1">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:endParaRPr>
+                <a:t>Duration</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
       </xdr:grpSp>
-      <xdr:sp macro="" textlink=" 'DB Data'!$B$4">
+      <xdr:sp macro="" textlink=" 'DB Data'!$B$6">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="TextBox 6"/>
+          <xdr:cNvPr id="6" name="TextBox 5"/>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="9315451" y="85725"/>
-            <a:ext cx="2514600" cy="352426"/>
+            <a:off x="990601" y="114300"/>
+            <a:ext cx="2924174" cy="676275"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5399,74 +5625,21 @@
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:fld id="{07321330-A736-45CE-AAA5-68120F007E07}" type="TxLink">
-              <a:rPr lang="en-US" sz="1400" i="1">
+            <a:fld id="{ED1868E5-AE56-4ACA-8944-337939004EF9}" type="TxLink">
+              <a:rPr lang="en-US" sz="2400" b="1" i="1" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:schemeClr val="accent6"/>
                 </a:solidFill>
+                <a:latin typeface="Calibri"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>Jan 06, 2023 2:45:09 PM</a:t>
+              <a:t>0.253 s</a:t>
             </a:fld>
-            <a:endParaRPr lang="en-US" sz="1400" i="1">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink=" 'DB Data'!$B$5">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="TextBox 7"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9296400" y="504824"/>
-            <a:ext cx="2533650" cy="342901"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:fld id="{C66D813D-5F81-41CE-8DAE-BBDD038F8F76}" type="TxLink">
-              <a:rPr lang="en-US" sz="1400" i="1">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:pPr algn="ctr"/>
-              <a:t>Jan 06, 2023 2:45:09 PM</a:t>
-            </a:fld>
-            <a:endParaRPr lang="en-US" sz="1400" i="1">
+            <a:endParaRPr lang="en-US" sz="2400" b="1" i="1">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -5475,132 +5648,6 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1638300</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="TextBox 44"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3819525" y="2990850"/>
-          <a:ext cx="771525" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Pass % - </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="TextBox 10"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="200025" y="2990850"/>
-          <a:ext cx="771525" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Pass % - </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5610,22 +5657,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.33594</cdr:x>
-      <cdr:y>0.42003</cdr:y>
+      <cdr:x>0.34572</cdr:x>
+      <cdr:y>0.37983</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.69922</cdr:x>
-      <cdr:y>0.73589</cdr:y>
+      <cdr:x>0.72119</cdr:x>
+      <cdr:y>0.71478</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$D$5">
+    <cdr:sp macro="" textlink="'DB Data'!$D$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="819150" y="1190625"/>
-          <a:ext cx="885825" cy="895350"/>
+          <a:off x="885825" y="1047749"/>
+          <a:ext cx="962024" cy="923925"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -5751,7 +5798,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{5501BE5E-9668-4CE4-A888-5F85DFC126EE}" type="TxLink">
+          <a:fld id="{790B2992-122F-4DED-8027-8C90CA641799}" type="TxLink">
             <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
@@ -5759,7 +5806,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>4</a:t>
+            <a:t>25%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
@@ -5777,22 +5824,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.32249</cdr:x>
-      <cdr:y>0.33157</cdr:y>
+      <cdr:x>0.3343</cdr:x>
+      <cdr:y>0.34819</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.68208</cdr:x>
-      <cdr:y>0.70423</cdr:y>
+      <cdr:x>0.7064</cdr:x>
+      <cdr:y>0.70474</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$F$5">
+    <cdr:sp macro="" textlink="'DB Data'!$F$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1076330" y="1076316"/>
-          <a:ext cx="1200153" cy="1209699"/>
+          <a:off x="1095367" y="1190625"/>
+          <a:ext cx="1219223" cy="1219200"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -5918,17 +5965,17 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{EC401DB1-A780-48C9-8D04-3C77257FD87B}" type="TxLink">
-            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+          <a:fld id="{55E37DD8-520B-4F7A-9381-E422E7073C87}" type="TxLink">
+            <a:rPr lang="en-US" sz="3000" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>6</a:t>
+            <a:t>33%</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="3600" b="1">
+          <a:endParaRPr lang="en-US" sz="3000" b="1">
             <a:solidFill>
               <a:schemeClr val="accent6"/>
             </a:solidFill>
@@ -5944,22 +5991,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.32411</cdr:x>
-      <cdr:y>0.40323</cdr:y>
+      <cdr:x>0.33708</cdr:x>
+      <cdr:y>0.36934</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.6917</cdr:x>
-      <cdr:y>0.72581</cdr:y>
+      <cdr:x>0.70786</cdr:x>
+      <cdr:y>0.71429</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$H$5">
+    <cdr:sp macro="" textlink="'DB Data'!$H$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="781050" y="1143000"/>
-          <a:ext cx="885825" cy="914400"/>
+          <a:off x="857253" y="1009650"/>
+          <a:ext cx="942958" cy="942975"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -6085,7 +6132,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{31691118-B83C-4A2D-970E-D212AA344C2F}" type="TxLink">
+          <a:fld id="{0C07208B-2D34-4675-9C99-827455C82BF1}" type="TxLink">
             <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
@@ -6093,7 +6140,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>8</a:t>
+            <a:t>75%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
@@ -6474,22 +6521,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.28095</cdr:x>
-      <cdr:y>0.38583</cdr:y>
+      <cdr:x>0.32161</cdr:x>
+      <cdr:y>0.41018</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.75714</cdr:x>
-      <cdr:y>0.76772</cdr:y>
+      <cdr:x>0.68844</cdr:x>
+      <cdr:y>0.71781</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$F$5">
+    <cdr:sp macro="" textlink="'DB Data'!$F$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="561975" y="933452"/>
-          <a:ext cx="952500" cy="923924"/>
+          <a:off x="609603" y="914412"/>
+          <a:ext cx="695317" cy="685798"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -6615,17 +6662,17 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{EC401DB1-A780-48C9-8D04-3C77257FD87B}" type="TxLink">
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
+          <a:fld id="{BB53D87E-07A1-498D-A732-07528C1BCE6E}" type="TxLink">
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>6</a:t>
+            <a:t>33%</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="1800" b="1">
+          <a:endParaRPr lang="en-US" sz="1600" b="1">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -7036,22 +7083,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.28095</cdr:x>
-      <cdr:y>0.38583</cdr:y>
+      <cdr:x>0.33503</cdr:x>
+      <cdr:y>0.4149</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.75714</cdr:x>
-      <cdr:y>0.76772</cdr:y>
+      <cdr:x>0.70558</cdr:x>
+      <cdr:y>0.73808</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$D$5">
+    <cdr:sp macro="" textlink="'DB Data'!$D$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="602111" y="1142827"/>
-          <a:ext cx="1020535" cy="1131157"/>
+          <a:off x="628650" y="904875"/>
+          <a:ext cx="695325" cy="704850"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -7177,17 +7224,17 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{5501BE5E-9668-4CE4-A888-5F85DFC126EE}" type="TxLink">
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
+          <a:fld id="{CE425BBE-7C02-4C07-B111-60BA1CB56900}" type="TxLink">
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>4</a:t>
+            <a:t>25%</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="1800" b="1">
+          <a:endParaRPr lang="en-US" sz="1600" b="1">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -7488,9 +7535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B19:G60"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7515,11 +7560,11 @@
       <c r="B38" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="34"/>
-      <c r="E38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="36"/>
       <c r="F38" s="8" t="s">
         <v>17</v>
       </c>
@@ -7541,17 +7586,17 @@
       </c>
     </row>
     <row r="60" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="33" t="s">
+      <c r="B60" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="35"/>
+      <c r="C60" s="36"/>
       <c r="D60" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E60" s="33" t="s">
+      <c r="E60" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="F60" s="35"/>
+      <c r="F60" s="36"/>
       <c r="G60" s="8" t="s">
         <v>23</v>
       </c>
@@ -7575,7 +7620,7 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="20" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7662,7 +7707,7 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="20" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7714,15 +7759,15 @@
       <c r="B24" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="36" t="s">
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="37"/>
+      <c r="G24" s="38"/>
       <c r="H24" s="11" t="s">
         <v>23</v>
       </c>
@@ -7745,7 +7790,7 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="20" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7842,9 +7887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E2"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7879,7 +7922,7 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:H6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7889,7 +7932,7 @@
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
@@ -8023,25 +8066,13 @@
       <c r="B6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="39">
-        <f>D2/D5</f>
+      <c r="D6" s="33">
         <v>0.25</v>
       </c>
-      <c r="E6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="39">
-        <f>F2/F5</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="39">
-        <f>H2/H5</f>
+      <c r="F6" s="33">
+        <v>0.33</v>
+      </c>
+      <c r="H6" s="33">
         <v>0.75</v>
       </c>
     </row>

--- a/src/main/resources/templates/report template - All DB.xlsx
+++ b/src/main/resources/templates/report template - All DB.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
   <si>
     <t>Duration</t>
   </si>
@@ -102,30 +102,6 @@
   </si>
   <si>
     <t>Excel Extent Report</t>
-  </si>
-  <si>
-    <t>SCENARIO PASS</t>
-  </si>
-  <si>
-    <t>SCENARIO TOTAL</t>
-  </si>
-  <si>
-    <t>SCENARIO FAIL</t>
-  </si>
-  <si>
-    <t>SCENARIO SKIP</t>
-  </si>
-  <si>
-    <t>STEP TOTAL</t>
-  </si>
-  <si>
-    <t>STEP PASS</t>
-  </si>
-  <si>
-    <t>STEP FAIL</t>
-  </si>
-  <si>
-    <t>STEP SKIP</t>
   </si>
   <si>
     <t>TAG</t>
@@ -217,12 +193,36 @@
   <si>
     <t>STEP / HOOK TEXT</t>
   </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>SKIPPED</t>
+  </si>
+  <si>
+    <t>STEPS</t>
+  </si>
+  <si>
+    <t>SCENARIOS</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>SCENARIO</t>
+  </si>
+  <si>
+    <t>FEATURE</t>
+  </si>
+  <si>
+    <t>PASS %</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,6 +310,33 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF51FF21"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -319,7 +346,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -380,16 +407,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
+      <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="hair">
+      <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="hair">
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="hair">
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -397,17 +437,45 @@
     <border>
       <left/>
       <right/>
-      <top style="hair">
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -420,76 +488,103 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,8 +593,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF51FF21"/>
       <color rgb="FF000099"/>
-      <color rgb="FF51FF21"/>
       <color rgb="FF27F959"/>
     </mruColors>
   </colors>
@@ -968,11 +1063,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Features!$F$20</c:f>
+              <c:f>Features!$F$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SCENARIO PASS</c:v>
+                  <c:v>PASSED</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1010,7 +1105,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$21:$B$21</c:f>
+              <c:f>Features!$B$22:$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1021,7 +1116,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$F$21:$F$21</c:f>
+              <c:f>Features!$F$22:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1042,11 +1137,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Features!$H$20</c:f>
+              <c:f>Features!$H$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SCENARIO SKIP</c:v>
+                  <c:v>SKIPPED</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1084,7 +1179,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$21:$B$21</c:f>
+              <c:f>Features!$B$22:$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1095,7 +1190,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$H$21:$H$21</c:f>
+              <c:f>Features!$H$22:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1116,11 +1211,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Features!$G$20</c:f>
+              <c:f>Features!$G$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SCENARIO FAIL</c:v>
+                  <c:v>FAILED</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1158,7 +1253,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$21:$B$21</c:f>
+              <c:f>Features!$B$22:$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1169,7 +1264,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$G$21:$G$21</c:f>
+              <c:f>Features!$G$22:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3067,11 +3162,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Scenarios!$H$20</c:f>
+              <c:f>Scenarios!$H$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>STEP PASS</c:v>
+                  <c:v>PASSED</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3109,7 +3204,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$21:$B$21</c:f>
+              <c:f>Scenarios!$B$22:$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3120,7 +3215,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$H$21:$H$21</c:f>
+              <c:f>Scenarios!$H$22:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3141,11 +3236,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Scenarios!$J$20</c:f>
+              <c:f>Scenarios!$J$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>STEP SKIP</c:v>
+                  <c:v>SKIPPED</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3183,7 +3278,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$21:$B$21</c:f>
+              <c:f>Scenarios!$B$22:$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3194,7 +3289,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$J$21:$J$21</c:f>
+              <c:f>Scenarios!$J$22:$J$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3215,11 +3310,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Scenarios!$I$20</c:f>
+              <c:f>Scenarios!$I$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>STEP FAIL</c:v>
+                  <c:v>FAILED</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3257,7 +3352,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$21:$B$21</c:f>
+              <c:f>Scenarios!$B$22:$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3268,7 +3363,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$I$21:$I$21</c:f>
+              <c:f>Scenarios!$I$22:$I$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3639,11 +3734,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tags!$D$20</c:f>
+              <c:f>Tags!$D$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SCENARIO PASS</c:v>
+                  <c:v>PASSED</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3681,7 +3776,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$21:$B$21</c:f>
+              <c:f>Tags!$B$22:$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3692,7 +3787,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$D$21:$D$21</c:f>
+              <c:f>Tags!$D$22:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3713,11 +3808,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tags!$F$20</c:f>
+              <c:f>Tags!$F$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SCENARIO SKIP</c:v>
+                  <c:v>SKIPPED</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3755,7 +3850,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$21:$B$21</c:f>
+              <c:f>Tags!$B$22:$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3766,7 +3861,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$F$21:$F$21</c:f>
+              <c:f>Tags!$F$22:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3787,11 +3882,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tags!$E$20</c:f>
+              <c:f>Tags!$E$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SCENARIO FAIL</c:v>
+                  <c:v>FAILED</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3829,7 +3924,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$21:$B$21</c:f>
+              <c:f>Tags!$B$22:$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3840,7 +3935,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$E$21:$E$21</c:f>
+              <c:f>Tags!$E$22:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -6165,7 +6260,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
@@ -6694,8 +6789,8 @@
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -6729,8 +6824,8 @@
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
@@ -7553,18 +7648,18 @@
     </row>
     <row r="37" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="35"/>
-      <c r="E38" s="36"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="38"/>
       <c r="F38" s="8" t="s">
         <v>17</v>
       </c>
@@ -7582,21 +7677,21 @@
     </row>
     <row r="59" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="34" t="s">
+      <c r="B60" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="36"/>
+      <c r="C60" s="38"/>
       <c r="D60" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E60" s="34" t="s">
+      <c r="E60" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="F60" s="36"/>
+      <c r="F60" s="38"/>
       <c r="G60" s="8" t="s">
         <v>23</v>
       </c>
@@ -7616,84 +7711,105 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B20:J21"/>
+  <dimension ref="B20:J22"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <pane ySplit="20" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="21" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.42578125" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="9" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="50.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="10" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>32</v>
-      </c>
+    <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="40"/>
+      <c r="G20" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" s="23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="29">
+      <c r="E22" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="16">
         <v>6</v>
       </c>
-      <c r="H21" s="29">
+      <c r="H22" s="16">
         <v>3</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I22" s="16">
         <v>2</v>
       </c>
-      <c r="J21" s="29">
+      <c r="J22" s="16">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -7703,79 +7819,94 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="B20:H24"/>
+  <dimension ref="B20:I25"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <pane ySplit="20" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="21" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.28515625" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="50.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
     <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>28</v>
-      </c>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="45"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="12">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="41"/>
+      <c r="C21" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="25">
         <v>6</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D22" s="25">
         <v>3</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E22" s="25">
         <v>2</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F22" s="25">
         <v>1</v>
       </c>
+      <c r="G22" s="26"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="37" t="s">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="37" t="s">
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="38"/>
-      <c r="H24" s="11" t="s">
+      <c r="I25" s="35" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:G24"/>
+  <mergeCells count="3">
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C20:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7786,97 +7917,126 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B18:L21"/>
+  <dimension ref="B18:M22"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <pane ySplit="20" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="21" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="12" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="13" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="11" t="s">
+    <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D21" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>32</v>
+      <c r="E21" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="K21" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="L21" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21" s="34" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="19">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="25">
         <v>6</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F22" s="25">
         <v>3</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G22" s="25">
         <v>2</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H22" s="25">
         <v>1</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I22" s="25"/>
+      <c r="J22" s="25">
         <v>6</v>
       </c>
-      <c r="J21" s="24">
+      <c r="K22" s="25">
         <v>3</v>
       </c>
-      <c r="K21" s="25">
+      <c r="L22" s="25">
         <v>2</v>
       </c>
-      <c r="L21" s="26">
+      <c r="M22" s="25">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -7905,10 +8065,10 @@
         <v>17</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -7986,7 +8146,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -8012,7 +8172,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -8038,7 +8198,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -8064,76 +8224,76 @@
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="33">
+        <v>47</v>
+      </c>
+      <c r="D6" s="12">
         <v>0.25</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="12">
         <v>0.33</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="12">
         <v>0.75</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R19" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="S19" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="T19" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="P19" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q19" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="R19" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="S19" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="T19" s="10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -8145,10 +8305,10 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I20" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="J20">
         <v>3</v>
@@ -8160,10 +8320,10 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="Q20" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="R20">
         <v>3</v>

--- a/src/main/resources/templates/report template - All DB.xlsx
+++ b/src/main/resources/templates/report template - All DB.xlsx
@@ -475,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -487,7 +487,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -7655,11 +7654,11 @@
       <c r="B38" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="38"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="37"/>
       <c r="F38" s="8" t="s">
         <v>17</v>
       </c>
@@ -7681,17 +7680,17 @@
       </c>
     </row>
     <row r="60" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="36" t="s">
+      <c r="B60" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="38"/>
+      <c r="C60" s="37"/>
       <c r="D60" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E60" s="36" t="s">
+      <c r="E60" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F60" s="38"/>
+      <c r="F60" s="37"/>
       <c r="G60" s="8" t="s">
         <v>23</v>
       </c>
@@ -7730,77 +7729,77 @@
   </cols>
   <sheetData>
     <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40" t="s">
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="40"/>
-      <c r="G20" s="39" t="s">
+      <c r="F20" s="39"/>
+      <c r="G20" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="H21" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="I21" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="23" t="s">
+      <c r="J21" s="22" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="15">
         <v>6</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H22" s="15">
         <v>3</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I22" s="15">
         <v>2</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J22" s="15">
         <v>1</v>
       </c>
     </row>
@@ -7837,68 +7836,68 @@
   </cols>
   <sheetData>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="45"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="44"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="41"/>
-      <c r="C21" s="13" t="s">
+      <c r="B21" s="40"/>
+      <c r="C21" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="G21" s="26" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="24">
         <v>6</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="24">
         <v>3</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="24">
         <v>2</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="24">
         <v>1</v>
       </c>
-      <c r="G22" s="26"/>
+      <c r="G22" s="25"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="35" t="s">
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="35" t="s">
+      <c r="I25" s="34" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7938,96 +7937,96 @@
       <c r="E18" s="5"/>
     </row>
     <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="46" t="s">
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="40" t="s">
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="H21" s="34" t="s">
+      <c r="H21" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="27" t="s">
+      <c r="I21" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="J21" s="19" t="s">
+      <c r="J21" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="K21" s="32" t="s">
+      <c r="K21" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="L21" s="33" t="s">
+      <c r="L21" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="M21" s="34" t="s">
+      <c r="M21" s="33" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="24">
         <v>6</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="24">
         <v>3</v>
       </c>
-      <c r="G22" s="25">
+      <c r="G22" s="24">
         <v>2</v>
       </c>
-      <c r="H22" s="25">
+      <c r="H22" s="24">
         <v>1</v>
       </c>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25">
+      <c r="I22" s="24"/>
+      <c r="J22" s="24">
         <v>6</v>
       </c>
-      <c r="K22" s="25">
+      <c r="K22" s="24">
         <v>3</v>
       </c>
-      <c r="L22" s="25">
+      <c r="L22" s="24">
         <v>2</v>
       </c>
-      <c r="M22" s="25">
+      <c r="M22" s="24">
         <v>1</v>
       </c>
     </row>
@@ -8058,21 +8057,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="34" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8226,13 +8226,13 @@
       <c r="B6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>0.25</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <v>0.33</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <v>0.75</v>
       </c>
     </row>

--- a/src/main/resources/templates/report template - All DB.xlsx
+++ b/src/main/resources/templates/report template - All DB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse-workspace\extent-excel-report\src\main\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel Extent\White Back - Jan 30\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -634,7 +634,7 @@
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>Tags with</a:t>
@@ -642,14 +642,14 @@
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="1" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
               <a:t> Failed &amp; Skipped Scenarios</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400" b="0" i="1">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:endParaRPr>
           </a:p>
@@ -954,7 +954,7 @@
                 <a:r>
                   <a:rPr lang="en-US" sz="1100">
                     <a:solidFill>
-                      <a:schemeClr val="bg1"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t>Scenarios</a:t>
@@ -975,9 +975,7 @@
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="tx2"/>
-        </a:solidFill>
+        <a:noFill/>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -985,9 +983,7 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="tx2"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="6350">
       <a:solidFill>
         <a:schemeClr val="tx1"/>
@@ -1028,7 +1024,7 @@
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
@@ -1330,7 +1326,7 @@
                 <a:r>
                   <a:rPr lang="en-US" sz="1100">
                     <a:solidFill>
-                      <a:schemeClr val="bg1"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t>Scenarios</a:t>
@@ -1352,9 +1348,7 @@
         <c:minorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="tx2"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1365,9 +1359,7 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="tx2"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln>
       <a:noFill/>
     </a:ln>
@@ -1599,7 +1591,7 @@
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
@@ -1608,7 +1600,7 @@
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="1" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
@@ -1617,7 +1609,7 @@
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
@@ -1626,6 +1618,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1685,6 +1678,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1758,6 +1752,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -1831,6 +1826,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -1919,7 +1915,7 @@
                 <a:r>
                   <a:rPr lang="en-US" sz="1100">
                     <a:solidFill>
-                      <a:schemeClr val="bg1"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t>Scenarios</a:t>
@@ -1927,6 +1923,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:ln>
@@ -1945,9 +1942,7 @@
         <c:minorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="tx2"/>
-        </a:solidFill>
+        <a:noFill/>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -1955,9 +1950,7 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="tx2"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="6350">
       <a:solidFill>
         <a:schemeClr val="tx1"/>
@@ -1998,7 +1991,7 @@
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>Scenarios with Failed &amp; Skipped Steps</a:t>
@@ -2006,6 +1999,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2065,6 +2059,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2138,6 +2133,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2211,6 +2207,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2294,7 +2291,7 @@
                 <a:r>
                   <a:rPr lang="en-US" sz="1100">
                     <a:solidFill>
-                      <a:schemeClr val="bg1"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t>Steps</a:t>
@@ -2302,6 +2299,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2313,9 +2311,7 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="tx2"/>
-        </a:solidFill>
+        <a:noFill/>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -2323,9 +2319,7 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="tx2"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="6350">
       <a:solidFill>
         <a:schemeClr val="tx1"/>
@@ -2366,7 +2360,7 @@
             <a:r>
               <a:rPr lang="en-US" sz="1600" b="0" i="1">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>Features</a:t>
@@ -2620,7 +2614,7 @@
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="0" i="1">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>Scenarios</a:t>
@@ -2874,7 +2868,7 @@
             <a:r>
               <a:rPr lang="en-US" sz="1600" b="0" i="1">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>Steps</a:t>
@@ -3128,7 +3122,7 @@
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>Scenarios</a:t>
@@ -3428,7 +3422,7 @@
                 <a:r>
                   <a:rPr lang="en-US" sz="1100">
                     <a:solidFill>
-                      <a:schemeClr val="bg1"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t>Steps</a:t>
@@ -3448,9 +3442,7 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="tx2"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -3461,9 +3453,7 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="tx2"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln>
       <a:noFill/>
     </a:ln>
@@ -3700,7 +3690,7 @@
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>Tags</a:t>
@@ -4000,7 +3990,7 @@
                 <a:r>
                   <a:rPr lang="en-US" sz="1100">
                     <a:solidFill>
-                      <a:schemeClr val="bg1"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t>Scenarios</a:t>
@@ -4021,9 +4011,7 @@
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="tx2"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -4034,9 +4022,7 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="tx2"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln>
       <a:noFill/>
     </a:ln>
@@ -4212,9 +4198,7 @@
               <a:prstGeom prst="rect">
                 <a:avLst/>
               </a:prstGeom>
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="12700">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
@@ -4274,9 +4258,7 @@
               <a:prstGeom prst="rect">
                 <a:avLst/>
               </a:prstGeom>
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="12700">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
@@ -4363,7 +4345,7 @@
                 <a:fld id="{07321330-A736-45CE-AAA5-68120F007E07}" type="TxLink">
                   <a:rPr lang="en-US" sz="1400" i="1">
                     <a:solidFill>
-                      <a:schemeClr val="accent6"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:pPr algn="ctr"/>
@@ -4371,7 +4353,7 @@
                 </a:fld>
                 <a:endParaRPr lang="en-US" sz="1400" i="1">
                   <a:solidFill>
-                    <a:schemeClr val="accent6"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                 </a:endParaRPr>
               </a:p>
@@ -4417,7 +4399,7 @@
                 <a:fld id="{C66D813D-5F81-41CE-8DAE-BBDD038F8F76}" type="TxLink">
                   <a:rPr lang="en-US" sz="1400" i="1">
                     <a:solidFill>
-                      <a:schemeClr val="accent6"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:pPr algn="ctr"/>
@@ -4425,7 +4407,7 @@
                 </a:fld>
                 <a:endParaRPr lang="en-US" sz="1400" i="1">
                   <a:solidFill>
-                    <a:schemeClr val="accent6"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                 </a:endParaRPr>
               </a:p>
@@ -4484,9 +4466,7 @@
                   <a:prstGeom prst="rect">
                     <a:avLst/>
                   </a:prstGeom>
-                  <a:solidFill>
-                    <a:schemeClr val="tx2"/>
-                  </a:solidFill>
+                  <a:noFill/>
                   <a:ln w="6350"/>
                 </xdr:spPr>
                 <xdr:style>
@@ -4551,24 +4531,20 @@
                       <a:prstGeom prst="roundRect">
                         <a:avLst/>
                       </a:prstGeom>
-                      <a:solidFill>
-                        <a:schemeClr val="bg1">
-                          <a:lumMod val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
+                      <a:ln w="3175"/>
                     </xdr:spPr>
                     <xdr:style>
-                      <a:lnRef idx="0">
-                        <a:schemeClr val="accent1"/>
+                      <a:lnRef idx="2">
+                        <a:schemeClr val="dk1"/>
                       </a:lnRef>
-                      <a:fillRef idx="3">
-                        <a:schemeClr val="accent1"/>
+                      <a:fillRef idx="1">
+                        <a:schemeClr val="lt1"/>
                       </a:fillRef>
-                      <a:effectRef idx="3">
-                        <a:schemeClr val="accent1"/>
+                      <a:effectRef idx="0">
+                        <a:schemeClr val="dk1"/>
                       </a:effectRef>
                       <a:fontRef idx="minor">
-                        <a:schemeClr val="lt1"/>
+                        <a:schemeClr val="dk1"/>
                       </a:fontRef>
                     </xdr:style>
                     <xdr:txBody>
@@ -4578,8 +4554,11 @@
                         <a:pPr algn="l"/>
                         <a:r>
                           <a:rPr lang="en-US" sz="1100">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
                             <a:solidFill>
-                              <a:srgbClr val="51FF21"/>
+                              <a:schemeClr val="tx1"/>
                             </a:solidFill>
                           </a:rPr>
                           <a:t>PASSED</a:t>
@@ -4589,8 +4568,11 @@
                         <a:pPr algn="l"/>
                         <a:r>
                           <a:rPr lang="en-US" sz="1100">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
                             <a:solidFill>
-                              <a:srgbClr val="FF0000"/>
+                              <a:schemeClr val="tx1"/>
                             </a:solidFill>
                           </a:rPr>
                           <a:t>FAILED</a:t>
@@ -4600,8 +4582,11 @@
                         <a:pPr algn="l"/>
                         <a:r>
                           <a:rPr lang="en-US" sz="1100">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
                             <a:solidFill>
-                              <a:srgbClr val="FFFF00"/>
+                              <a:schemeClr val="tx1"/>
                             </a:solidFill>
                           </a:rPr>
                           <a:t>SKIPPED</a:t>
@@ -4611,6 +4596,9 @@
                         <a:pPr algn="l"/>
                         <a:r>
                           <a:rPr lang="en-US" sz="1100">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
                             <a:solidFill>
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
@@ -4828,9 +4816,7 @@
                   <a:prstGeom prst="rect">
                     <a:avLst/>
                   </a:prstGeom>
-                  <a:solidFill>
-                    <a:schemeClr val="tx2"/>
-                  </a:solidFill>
+                  <a:noFill/>
                   <a:ln w="6350"/>
                 </xdr:spPr>
                 <xdr:style>
@@ -4869,24 +4855,20 @@
                   <a:prstGeom prst="roundRect">
                     <a:avLst/>
                   </a:prstGeom>
-                  <a:solidFill>
-                    <a:schemeClr val="bg1">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
+                  <a:ln w="3175"/>
                 </xdr:spPr>
                 <xdr:style>
-                  <a:lnRef idx="0">
-                    <a:schemeClr val="accent1"/>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
                   </a:lnRef>
-                  <a:fillRef idx="3">
-                    <a:schemeClr val="accent1"/>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
                   </a:fillRef>
-                  <a:effectRef idx="3">
-                    <a:schemeClr val="accent1"/>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
                   </a:effectRef>
                   <a:fontRef idx="minor">
-                    <a:schemeClr val="lt1"/>
+                    <a:schemeClr val="dk1"/>
                   </a:fontRef>
                 </xdr:style>
                 <xdr:txBody>
@@ -4905,7 +4887,7 @@
                     <a:r>
                       <a:rPr lang="en-US" sz="1200">
                         <a:solidFill>
-                          <a:srgbClr val="51FF21"/>
+                          <a:schemeClr val="tx1"/>
                         </a:solidFill>
                       </a:rPr>
                       <a:t>PASSED</a:t>
@@ -4916,7 +4898,7 @@
                     <a:r>
                       <a:rPr lang="en-US" sz="1200">
                         <a:solidFill>
-                          <a:srgbClr val="FF0000"/>
+                          <a:schemeClr val="tx1"/>
                         </a:solidFill>
                       </a:rPr>
                       <a:t>FAILED</a:t>
@@ -4927,7 +4909,7 @@
                     <a:r>
                       <a:rPr lang="en-US" sz="1200">
                         <a:solidFill>
-                          <a:srgbClr val="FFFF00"/>
+                          <a:schemeClr val="tx1"/>
                         </a:solidFill>
                       </a:rPr>
                       <a:t>SKIPPED</a:t>
@@ -5155,9 +5137,7 @@
                   <a:prstGeom prst="rect">
                     <a:avLst/>
                   </a:prstGeom>
-                  <a:solidFill>
-                    <a:schemeClr val="tx2"/>
-                  </a:solidFill>
+                  <a:noFill/>
                   <a:ln w="6350"/>
                 </xdr:spPr>
                 <xdr:style>
@@ -5196,24 +5176,20 @@
                   <a:prstGeom prst="roundRect">
                     <a:avLst/>
                   </a:prstGeom>
-                  <a:solidFill>
-                    <a:schemeClr val="bg1">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
+                  <a:ln w="3175"/>
                 </xdr:spPr>
                 <xdr:style>
-                  <a:lnRef idx="0">
-                    <a:schemeClr val="accent1"/>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
                   </a:lnRef>
-                  <a:fillRef idx="3">
-                    <a:schemeClr val="accent1"/>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
                   </a:fillRef>
-                  <a:effectRef idx="3">
-                    <a:schemeClr val="accent1"/>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
                   </a:effectRef>
                   <a:fontRef idx="minor">
-                    <a:schemeClr val="lt1"/>
+                    <a:schemeClr val="dk1"/>
                   </a:fontRef>
                 </xdr:style>
                 <xdr:txBody>
@@ -5232,7 +5208,7 @@
                     <a:r>
                       <a:rPr lang="en-US" sz="1100">
                         <a:solidFill>
-                          <a:srgbClr val="51FF21"/>
+                          <a:schemeClr val="tx1"/>
                         </a:solidFill>
                       </a:rPr>
                       <a:t>PASSED</a:t>
@@ -5243,7 +5219,7 @@
                     <a:r>
                       <a:rPr lang="en-US" sz="1100">
                         <a:solidFill>
-                          <a:srgbClr val="FF0000"/>
+                          <a:schemeClr val="tx1"/>
                         </a:solidFill>
                       </a:rPr>
                       <a:t>FAILED</a:t>
@@ -5254,7 +5230,7 @@
                     <a:r>
                       <a:rPr lang="en-US" sz="1100">
                         <a:solidFill>
-                          <a:srgbClr val="FFFF00"/>
+                          <a:schemeClr val="tx1"/>
                         </a:solidFill>
                       </a:rPr>
                       <a:t>SKIPPED</a:t>
@@ -5636,9 +5612,7 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="tx2"/>
-            </a:solidFill>
+            <a:noFill/>
             <a:ln w="12700">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
@@ -5726,7 +5700,7 @@
             <a:fld id="{ED1868E5-AE56-4ACA-8944-337939004EF9}" type="TxLink">
               <a:rPr lang="en-US" sz="2400" b="1" i="1" u="none" strike="noStrike">
                 <a:solidFill>
-                  <a:schemeClr val="accent6"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:rPr>
@@ -5735,7 +5709,7 @@
             </a:fld>
             <a:endParaRPr lang="en-US" sz="2400" b="1" i="1">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:endParaRPr>
           </a:p>
@@ -5895,7 +5869,7 @@
           <a:fld id="{790B2992-122F-4DED-8027-8C90CA641799}" type="TxLink">
             <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
@@ -5904,7 +5878,7 @@
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -6062,7 +6036,7 @@
           <a:fld id="{55E37DD8-520B-4F7A-9381-E422E7073C87}" type="TxLink">
             <a:rPr lang="en-US" sz="3000" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
@@ -6071,7 +6045,7 @@
           </a:fld>
           <a:endParaRPr lang="en-US" sz="3000" b="1">
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -6229,7 +6203,7 @@
           <a:fld id="{0C07208B-2D34-4675-9C99-827455C82BF1}" type="TxLink">
             <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
@@ -6238,7 +6212,7 @@
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -6338,24 +6312,20 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:ln w="3175"/>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -6366,7 +6336,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1200">
               <a:solidFill>
-                <a:srgbClr val="51FF21"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>PASSED</a:t>
@@ -6377,7 +6347,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1200">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>FAILED</a:t>
@@ -6388,7 +6358,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1200">
               <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>SKIPPED</a:t>
@@ -6903,24 +6873,20 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:ln w="3175"/>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -6931,7 +6897,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1200">
               <a:solidFill>
-                <a:srgbClr val="51FF21"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>PASSED</a:t>
@@ -6942,7 +6908,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1200">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>FAILED</a:t>
@@ -6953,7 +6919,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1200">
               <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>SKIPPED</a:t>
@@ -8081,9 +8047,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/src/main/resources/templates/report template - All DB.xlsx
+++ b/src/main/resources/templates/report template - All DB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel Extent\White Back - Jan 30\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse-workspace\extent-excel-report\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,17 +17,23 @@
     <sheet name="Tags" sheetId="4" r:id="rId3"/>
     <sheet name="Features" sheetId="2" r:id="rId4"/>
     <sheet name="Exceptions" sheetId="12" r:id="rId5"/>
-    <sheet name="DB Data" sheetId="5" r:id="rId6"/>
+    <sheet name="Authors" sheetId="13" r:id="rId6"/>
+    <sheet name="Devices" sheetId="15" r:id="rId7"/>
+    <sheet name="DB Data" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="Chart1" localSheetId="5">Scenarios!#REF!</definedName>
+    <definedName name="Chart1" localSheetId="6">Scenarios!#REF!</definedName>
     <definedName name="Chart1">Scenarios!#REF!</definedName>
+    <definedName name="Chart51" localSheetId="6">Scenarios!#REF!</definedName>
+    <definedName name="Chart51">Scenarios!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="66">
   <si>
     <t>Duration</t>
   </si>
@@ -216,6 +222,15 @@
   </si>
   <si>
     <t>PASS %</t>
+  </si>
+  <si>
+    <t>AUTHOR NAME</t>
+  </si>
+  <si>
+    <t>device</t>
+  </si>
+  <si>
+    <t>DEVICE NAME</t>
   </si>
 </sst>
 </file>
@@ -475,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -553,6 +568,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1033,7 +1051,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1093,7 +1110,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1167,7 +1183,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1241,7 +1256,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1334,7 +1348,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1565,6 +1578,748 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Authors</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.8395445134575568E-2"/>
+          <c:y val="0.10887596899224808"/>
+          <c:w val="0.9602173913043478"/>
+          <c:h val="0.8484883720930233"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Authors!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PASSED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Authors!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AUTHOR NAME</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Authors!$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-77F2-4DDE-822F-16B38F6808E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Authors!$F$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SKIPPED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Authors!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AUTHOR NAME</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Authors!$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-77F2-4DDE-822F-16B38F6808E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Authors!$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FAILED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Authors!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AUTHOR NAME</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Authors!$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-77F2-4DDE-822F-16B38F6808E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="46589440"/>
+        <c:axId val="46590976"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46589440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46590976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46590976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46589440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Devices</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.8395445134575568E-2"/>
+          <c:y val="0.10887596899224808"/>
+          <c:w val="0.9602173913043478"/>
+          <c:h val="0.8484883720930233"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Devices!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PASSED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Devices!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>device</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Devices!$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FAA3-4CA3-AB56-81BA9F622F8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Devices!$F$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SKIPPED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Devices!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>device</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Devices!$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FAA3-4CA3-AB56-81BA9F622F8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Devices!$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FAILED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Devices!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>device</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Devices!$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FAA3-4CA3-AB56-81BA9F622F8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="46589440"/>
+        <c:axId val="46590976"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46589440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46590976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46590976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46589440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -1618,7 +2373,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1678,7 +2432,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1752,7 +2505,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -1826,7 +2578,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -1923,7 +2674,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:ln>
@@ -1999,7 +2749,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2059,7 +2808,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2133,7 +2881,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2207,7 +2954,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2299,7 +3045,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3130,7 +3875,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3190,7 +3934,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3264,7 +4007,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3338,7 +4080,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3430,7 +4171,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5716,6 +6456,80 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7620,11 +8434,11 @@
       <c r="B38" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="36"/>
-      <c r="E38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="38"/>
       <c r="F38" s="8" t="s">
         <v>17</v>
       </c>
@@ -7646,17 +8460,17 @@
       </c>
     </row>
     <row r="60" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="35" t="s">
+      <c r="B60" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="37"/>
+      <c r="C60" s="38"/>
       <c r="D60" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E60" s="35" t="s">
+      <c r="E60" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="F60" s="37"/>
+      <c r="F60" s="38"/>
       <c r="G60" s="8" t="s">
         <v>23</v>
       </c>
@@ -7695,21 +8509,21 @@
   </cols>
   <sheetData>
     <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39" t="s">
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="39"/>
-      <c r="G20" s="38" t="s">
+      <c r="F20" s="40"/>
+      <c r="G20" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
@@ -7802,19 +8616,19 @@
   </cols>
   <sheetData>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="45"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="40"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="12" t="s">
         <v>55</v>
       </c>
@@ -7853,13 +8667,13 @@
       <c r="B25" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
       <c r="H25" s="34" t="s">
         <v>17</v>
       </c>
@@ -7903,24 +8717,24 @@
       <c r="E18" s="5"/>
     </row>
     <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="45" t="s">
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="39" t="s">
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
@@ -8043,6 +8857,200 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B20:I25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <pane ySplit="21" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="45"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="41"/>
+      <c r="C21" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="24">
+        <v>6</v>
+      </c>
+      <c r="D22" s="24">
+        <v>3</v>
+      </c>
+      <c r="E22" s="24">
+        <v>2</v>
+      </c>
+      <c r="F22" s="24">
+        <v>1</v>
+      </c>
+      <c r="G22" s="25"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C25:G25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B20:I25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <pane ySplit="21" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="45"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="41"/>
+      <c r="C21" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="24">
+        <v>6</v>
+      </c>
+      <c r="D22" s="24">
+        <v>3</v>
+      </c>
+      <c r="E22" s="24">
+        <v>2</v>
+      </c>
+      <c r="F22" s="24">
+        <v>1</v>
+      </c>
+      <c r="G22" s="25"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C25:G25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:T33"/>
